--- a/finetuning/it_datasets/it_dataset/it_bizerte_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_bizerte_dataset.xlsx
@@ -652,7 +652,11 @@
           <t>bizerte</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Java Coffee, a local favorite in Bizerte, is the perfect spot for a relaxing break. Start your day with their delicious breakfast offerings, or unwind with a warm cup of tea or coffee. With its convenient location in the heart of the city (coordinates: 37.293832230787, 9.858175135506), Java Coffee is easy to find. Its warm and welcoming ambiance, friendly staff, and highly rated 4.6-star rating make it a must-visit in Bizerte.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -757,7 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Floria coffee shop located at 7VQ9+GJR Bizerte. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at http://www.floriacoffee.tn/ or call them at 20 801 801.</t>
+          <t>Floria coffee shop is a cafe located in Bizerte, Tunisia. It has a 4.4 rating based on 21 reviews. The cafe is open from 8:00 AM to 00:00 AM every day and is located at the coordinates (37.2725849, 9.8719093). Floria coffee shop offers a variety of coffee drinks, pastries, and other snacks.</t>
         </is>
       </c>
     </row>
@@ -856,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great Cafe, check out Cafe et hotel el Medina, Bizerte located at Cafe et hotel el Medina, Bizerte, jm` lqSb@, Bizerte 7000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 22 807 649.</t>
+          <t>Cafe et hotel el Medina is a cafe located at the coordinates (37.275992, 9.8701015) in Bizerte, Tunisia. It has a rating of 4.2 based on 21 reviews and offers a variety of services.</t>
         </is>
       </c>
     </row>
@@ -955,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out london cafe at 7VM4+PXW london cafe, Unnamed Road. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-23:30. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>The London Cafe is a cozy cafe located in the heart of Bizerte, Tunisia. It serves a wide variety of coffee and tea drinks, as well as a selection of pastries and sandwiches. The cafe is a popular spot for locals and tourists alike, and is known for its friendly staff and relaxed atmosphere. It is located at 37.2725849, 9.8719093.</t>
         </is>
       </c>
     </row>
@@ -1062,9 +1066,8 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out cafe restaurant chot located at Harbor Drive, Bizerte 7000. 
-This top-rated destination is perfect for Salon de the lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.facebook.com/cafe.chot or call them at 55 891 298.</t>
+          <t>**Café Restaurant Chot:**
+Located in Bizerte, Café Restaurant Chot offers a delightful ambiance with its tea room ambiance. It's conveniently situated on Harbor Drive and is known for its 4.4-star rating and positive reviews. Open from 8:00 AM to 10:00 PM daily, this charming establishment serves tantalizing culinary delights.</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Cite Hached located at cite Hached, Bizerte 7001. This top-rated destination is perfect for Cafe lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 37.2799697, 9.8769932. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Cit%C3%A9+Hached/data=!4m7!3m6!1s0x12e31f853d6c3e95:0xc2d75a688df4d6b3!8m2!3d37.2651387!4d9.8426259!16s%2Fg%2F11j4_r9zyz!19sChIJlT5sPYUf4xIRs9b0jWha18I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Cite Hached, located in Bizerte, Tunisia, is a highly-rated cafe with a 4.2-star rating and 19 reviews. It offers a cozy ambiance and a range of coffee and snacks, and is situated at coordinates (37.2799697, 9.8769932).</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1265,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Morjen located at 7VV3+73J Cafe Morjen, Unnamed Road,, Bizerte. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Cafe+Morjen/data=!4m7!3m6!1s0x12e31e8b73cd3f6f:0x27b5b2ff0c3270c1!8m2!3d37.2934973!4d9.8526528!16s%2Fg%2F11c5176t9g!19sChIJbz_Nc4se4xIRwXAyDP-ytSc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 030 380.</t>
+          <t>Cafe Morjen is a popular cafe located in Bizerte, Tunisia. It offers a variety of coffee drinks and pastries. The cafe is located at (37.2725849, 9.8719093) and is open from 6:00am to 11:30pm.</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1368,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a flavorful cup of coffee, head to cafe mattino located at cafe mattino, Bizerte. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 37.1682121, 10.0349639. For more details, visit their website at nan or call them at 72 416 036.</t>
+          <t>Café Mattino is a popular cafe located in Bizerte, Tunisia. It offers a wide variety of coffee, tea, pastries, and other food items. The cafe is conveniently located near the city center and has a cozy atmosphere. It's a great place to relax, meet friends, or get some work done with free wifi.</t>
         </is>
       </c>
     </row>
@@ -1468,8 +1471,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated spot for Cafeteria lovers, check out Bloom at 7VX9+62F Bloom, La Corniche, Bizerte 7000. 
-This top-rated destination with a 4.6 rating is perfect for Cafeteria and Salon de the enthusiasts. It's open during these hours: 07:00-23:00, but closed on [empty]. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at [empty] or call them at 94 036 378.</t>
+          <t>Bloom is a cafeteria located in Bizerte with a rating of 4.6 and 14 reviews. Its coordinates are (37.275992, 9.8701015).</t>
         </is>
       </c>
     </row>
@@ -1568,9 +1570,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out Cafe Le coin located at 7V9F+V7Q Cafe Le coin, Bizerte. 
-This top-rated destination is perfect for Cafe lovers and offers a range to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Cafe Le coin is a 4.5-rated cafe situated in Bizerte, Tunisia. Open from 6 AM to 10 PM daily, this cafe is a great spot for your daily caffeine fix or a quick bite to eat.</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe experience, check out Lavazza Coffee Shop Bizerte located at 7VW9+P25 Lavazza Coffee Shop Bizerte, la corniche, Bizerte. This top-rated destination is perfect for cafe lovers and offers a cozy atmosphere to relax and enjoy your favorite beverages. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:30-23:00, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at [website] or call them at 28 855 700.</t>
+          <t>**Lavazza Coffee Shop Bizerte**, located along the corniche in Bizerte, welcomes you with a welcoming ambiance. Rated 4.2 stars, this cafe offers a cozy setting to enjoy their specialty coffee drinks. Open from 6:30 AM to 11 PM daily, Lavazza is perfect for morning coffee or evening relaxations. Its convenient location and excellent reviews make it a popular destination among coffee enthusiasts and locals alike.</t>
         </is>
       </c>
     </row>
@@ -1772,9 +1772,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a cozy café, check out Cafe +. 
-This top-rated destination is perfect for café lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 37.1682121, 10.0349639.</t>
+          <t>Cafe + is a cafe located in Bizerte, Tunisia. It is open from 8am to 10pm daily and offers a variety of food and drinks. The cafe is located at coordinates (37.1682121, 10.0349639).</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1875,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Eline located at 7V82+386 Cafe Eline, Bizerte. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:30-23:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Cafe+Eline/data=!4m7!3m6!1s0x12e31f0272022a3d:0x1d4ddced885df463!8m2!3d37.2651613!4d9.8507767!16s%2Fg%2F11f5pxtw45!19sChIJPSoCcgIf4xIRY_RdiO3cTR0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 141 209.</t>
+          <t>Cafe Eline is a well-rated (4.1/5) cafe located in the heart of Bizerte, Tunisia. The cafe opens early at 06:30 am and closes late at 11 pm, making it a convenient spot for breakfast, lunch, or dinner. They are known for their coffee, and they have a selection of pastries and other light bites available as well. The cafe is located at the following coordinates: (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1982,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to unwind, visit Woods pastry located at 8V28+R93 Woods pastry, Corniche. This highly-rated cafe is a great place to relax and offers a cozy ambiance to enjoy your coffee or tea. With a rating of 4.6 out of 5, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, the GPS coordinates are (37.2725849, 9.8719093). For more details, visit their website at https://www.facebook.com/WOODS-Pastry-104591668394697/ or call them at 22 760 237.</t>
+          <t>Woods pastry is a cafe located in Bizerte, Tunisia. It offers a variety of pastries, and is open from 8am to 11pm. The cafe is located at 8V28+R93, Corniche, Bizerte.</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2085,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a cozy spot to grab a coffee, check out La TASSE located at 7VW8+F3Q La TASSE, Unnamed Road. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100057372861309%26mibextid%3DZbWKwL</t>
+          <t>La TASSE is a cafe located in Bizerte, Tunisia, offering a cozy and casual atmosphere. Situated in a convenient location at (37.2725849, 9.8719093), this cafe is a popular spot for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2180,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a cozy spot to enjoy a cup of tea, check out Cafe Le Pirate Bizerte. This top-rated destination is perfect for tea lovers and offers a range of tea varieties to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: (37.2725849, 9.8719093)</t>
+          <t>Cafe Le Pirate Bizerte is a tea room located in Bizerte, Tunisia. It is rated 4.0 out of 5 stars on Google, and its main category is tea room. It has received 4 reviews so far.</t>
         </is>
       </c>
     </row>
@@ -2281,9 +2279,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Coffee shop my way located at 7VV9+P9C Coffee shop my way, Bizerte. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 20 997 422.</t>
+          <t>Coffee shop my way is a café located in Bizerte, Tunisia. It has a 5.0 rating based on 4 reviews. The café is situated at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2374,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Cafe, Twist Coffee Shop is a must-visit spot. Located at 7VFF+3C9 Twist Coffee Shop, Av. D'Algerie, Bizerte, this destination offers a range of Cafe options to choose from. With a rating of 5.0, it's a popular spot among locals and tourists alike. To get there, you can use the GPS coordinates (37.272662641297, 9.873506559117). For more details, visit their website at https://www.google.com/maps/place/Twist+Coffee+Shop/data=!4m7!3m6!1s0x12e31f8d03718697:0x70db85b31942701c!8m2!3d37.2726594!4d9.8736084!16s%2Fg%2F11qbzfy138!19sChIJl4ZxA40f4xIRHHBCGbOF23A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Twist Coffee Shop is a highly-rated cafe located at 7VFF+3C9 Twist Coffee Shop, Av. D'Algerie, Bizerte, Tunisia. The cafe has received 4 reviews and is known for its excellent service and delicious coffee. It is located at coordinates (37.272662641297, 9.873506559117) and is owned by Twist Coffee Shop (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -2477,9 +2473,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out mqh~ lnkhyl at 7VCH+G76 mqh~ lnkhyl, Quai Nord du Canal de, Bizerte. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on []. To get there, use these GPS coordinates: 37.27275, 9.87588.</t>
+          <t>mqh~ lnkhyl is a cafe located in the city of Bizerte, Tunisia. It is rated 4.5 out of 5 stars on Google and has received 4 reviews. The cafe is open from 9am to 5pm and is closed on weekends. It is located at the address 7VCH+G76 mqh~ lnkhyl, Quai Nord du Canal de, Bizerte. The cafe's main category is Cafe and it offers a variety of food and drinks.</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2572,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a top-rated cafe, check out Pause Cafe located at Av. Farhat Hached. This 5.0-rated destination offers a range of categories to choose from, including Cafe. With its convenient opening hours of 05:00-00:00, it's a must-visit spot. You can get directions using the GPS coordinates: (37.275493284631, 9.861096391462). For more details, visit their website at https://www.google.com/maps/place/pause+cafe/data=!4m7!3m6!1s0x12e31e524761b2ff:0xcbe9a2bcf458c227!8m2!3d37.2729719!4d9.8664552!16s%2Fg%2F11df50yl44!19sChIJ_7JhR1Ie4xIRJ8JY9Lyi6cs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Pause café is located in Bizerte, Tunisia, at the coordinates (37.275493284631, 9.861096391462). It is a highly-rated cafe with a 5.0 rating out of 3 reviews. Unfortunately, no further information is available about this establishment, including its description, opening hours, contact details, or available amenities.</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2675,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out TIME CAFE at 7VP8+XJ8 TIME CAFE, Unnamed Road. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day but closed on none. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 24 367 079.</t>
+          <t>TIME CAFE is a cafe situated in Bizerte, Tunisia. It has a 4.7-star rating based on 3 reviews and is open 24 hours a day. Its exact location is 7VP8+XJ8 Unnamed Road, and its coordinates are (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -2784,11 +2778,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out CAFE L'ORIENT located at 7VFC+457 CAFE L'ORIENT, Ave Hassen Nouri, Bizerte. 
-This place is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-22:00, but closed on . 
-To get there, use these GPS coordinates: 37.28428, 9.87372. 
-For more details, visit their website at  or call them at 21 599 024.</t>
+          <t>CAFE L'ORIENT is located in Bizerte and has 5 star reviews. The place is a coffee shop that also serves food. The coffee shop is open from 7 AM to 10 PM. You can either call the coffee shop or visit their website.</t>
         </is>
       </c>
     </row>
@@ -2883,9 +2873,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe el Borj located at 189 ex blvd Saadi Carnot, Bizerte. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+el+Borj/data=!4m7!3m6!1s0x12e31f35721fb02d:0x163fba4a7a43f303!8m2!3d37.2782237!4d9.8694272!16s%2Fg%2F11fnb_btbq!19sChIJLbAfcjUf4xIRA_NDekq6PxY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe el Borj, located at 189 ex blvd Saadi Carnot in Bizerte (37.2725849, 9.8719093), is a 4-star rated cafe that offers a cozy ambiance. Its main offerings include coffee, tea, and other cafe delights.</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2968,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out Pause cafe located at 33 Rue Salah Ben Ali, Bizerte. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot for cafe enthusiasts. For more details, visit their website at https://www.google.com/maps/place/Pause+caf%C3%A9/data=!4m7!3m6!1s0x12e31ff2b40ad0b7:0xf752eb5f4f4e8a8f!8m2!3d37.271493!4d9.8693686!16s%2Fg%2F11kq2dwwsk!19sChIJt9AKtPIf4xIRj4pOT1_rUvc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Pause cafe is a cafe located in Bizerte, Tunisia, offering a cozy and relaxed atmosphere. With a rating of 4.5, it has received positive feedback from its patrons. The cafe is situated at 33 Rue Salah Ben Ali, with coordinates (37.27249018555, 9.867556641827).</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3067,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out Cafe de la Republique, Bizerte located at 7VFF+RCV Cafe de la Republique, Bizerte, Bizerte. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+de+la+R%C3%A9publique,+Bizerte/data=!4m7!3m6!1s0x12e31fbe5211d68b:0x68bcbd3ce392743e!8m2!3d37.2746136!4d9.8735498!16s%2Fg%2F11qq050sdg!19sChIJi9YRUr4f4xIRPnSS4zy9vGg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at not available.</t>
+          <t>Cafe de la Republique, located at 7VFF+RCV, Bizerte, Tunisia (coordinates: 37.2725849, 9.8719093), is a highly-rated (5.0 stars from 2 reviews) cafe that specializes in delicious coffee and a warm and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3178,9 +3166,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Raouebi located at 7VP9+2WV Cafe Raouebi, Unnamed Road, Bizerte. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at  or call them at nan.</t>
+          <t>Cafe Raouebi is a popular cafe in Bizerte, Tunisia. This cafe is located at 7VP9+2WV Cafe Raouebi, Unnamed Road, Bizerte and has a rating of 5.0 out of 5 stars. The cafe serves a variety of food and drinks, and is open from 5:30am to 12:00am.</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3269,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Midtown Coffee &amp; Juice located at 7VCF+V78 Midtown Coffee &amp; Juice, Av. D'Algerie, Bizerte. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe experiences to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on undefined. To get there, use these GPS coordinates: 35.282338, -93.134696. For more details, visit their website at https://www.facebook.com/bghcoffee.</t>
+          <t>Midtown Coffee &amp; Juice is a cafe located in Bizerte. It offers a variety of coffee and juice drinks, as well as a selection of snacks and pastries. The cafe is conveniently located near the city center and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3368,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated cafe, check out La liga coffee located at 7VM2+V45, Unnamed Road. This destination offers a range of cafe options and has a rating of 4.0. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/La+liga+coffee/data=!4m7!3m6!1s0x12e31f476939c4eb:0x2c8548254875d1f4!8m2!3d37.2846464!4d9.8503465!16s%2Fg%2F11mq7_48nc!19sChIJ68Q5aUcf4xIR9NF1SCVIhSw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 124 627.</t>
+          <t>La Liga Coffee, located in Bizerte, offers an exceptional coffee experience. With a 4.0 rating based on 2 reviews, this cafe is open from 8am to 11pm daily. Its convenient location and dedication to serving quality coffee make it an ideal destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3467,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out El Mundo located at Route la corniche Bizerte, 7000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.facebook.com/EL-Mundo-101230912068459/</t>
+          <t>El Mundo is a cafe located in Bizerte, Tunisia, at coordinates (37.275992, 9.8701015). It has a 5.0 rating based on 2 reviews and is known for its cafe offerings.</t>
         </is>
       </c>
     </row>
@@ -3580,9 +3566,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Cafe, check out Caffeitalia Bizerte located at 7VFG+FCQ Caffeitalia Bizerte, Rue du Martyr Mohamed Rjiba, Bizerte. 
-This destination is perfect for Cafe lovers and is open 24 hours a day. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.273875464232, 9.876809321543.</t>
+          <t>Caffeitalia Bizerte is a cafe located at 7VFG+FCQ Caffeitalia Bizerte, Rue du Martyr Mohamed Rjiba, Bizerte (37.273875464232, 9.876809321543). It has a rating of 5.0 and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3661,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe milano located at Cafe milano, 7000, Bizerte. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015.</t>
+          <t>Cafe milano is a cafe located in bizerte, Tunisia, with coordinates (37.275992, 9.8701015). It is rated 5.0 out of 5 stars based on 1 review. Cafe milano's featured image is https://lh5.googleusercontent.com/p/AF1QipORN_JLRLP_KpoA5ETvNQnTaJWSgsHkOd8V_RBR=w408-h272-k-no.</t>
         </is>
       </c>
     </row>
@@ -3776,9 +3760,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great Cafe, check out Cafe et hotel el Medina, Bizerte located at Cafe et hotel el Medina, Bizerte, jm` lqSb@, Bizerte 7000. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 22 807 649.</t>
+          <t>Café et hôtel el Medina est un café situé à Bizerte, en Tunisie. Il offre une variété de boissons et de collations, ainsi qu'un service de restauration. L'hôtel dispose de chambres confortables et abordables. Le café est situé au cœur de la ville, à proximité de nombreux commerces et restaurants. Il est également à quelques pas de la plage.</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3867,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out cafe restaurant chot located at Harbor Drive. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.facebook.com/cafe.chot or call them at 55 891 298.</t>
+          <t>Cafe Restaurant Chot is a teahouse located at Harbor Drive, Bizerte 7000. It offers a wide range of food and drinks, all within a cozy and welcoming atmosphere. The teahouse is located at (37.275992, 9.8701015) and is open from 08:00 to 22:00.</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3966,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out mqh~ fD lmbd`yn located at 7VHG+9RG mqh~ fD lmbd`yn, Bizerte. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Located at the heart of Bizerte (37.2725849,9.8719093), mqh~ fD lmbd`yn is a cozy cafe with an average rating of 4.3 based on 19 reviews. Open from 6:30 AM to midnight, it offers a welcoming ambiance for coffee enthusiasts and those seeking a relaxing break.</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4069,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Morjen located at 7VV3+73J Cafe Morjen, Unnamed Road. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-23:30, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Cafe+Morjen/data=!4m7!3m6!1s0x12e31e8b73cd3f6f:0x27b5b2ff0c3270c1!8m2!3d37.2934973!4d9.8526528!16s%2Fg%2F11c5176t9g!19sChIJbz_Nc4se4xIRwXAyDP-ytSc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 030 380.</t>
+          <t>Cafe Morjen is a highly rated cafe located in Bizerte, Tunisia. It offers a wide range of coffee and tea drinks, as well as pastries and other snacks. The cafe is open from 6am to 11:30pm, and is closed on Sundays. It is located at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4172,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Tapana located at Rue de cap bon zarzouna, Bizerte 7021. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 37.256166046108, 9.877645129859. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Tapana/data=!4m7!3m6!1s0x12e31fb8073db425:0xcc776f5c46a9464f!8m2!3d37.2569165!4d9.879359!16s%2Fg%2F11hbv8_v0l!19sChIJJbQ9B7gf4xIRT0apRlxvd8w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 338 493.</t>
+          <t>Cafe Tapana, located in Bizerte, Tunisia (37.256166046108, 9.877645129859), is a popular café offering a welcoming ambiance and a delightful menu. Its convenient location and warm atmosphere make it a great spot for locals and tourists alike to relax and enjoy a cup of coffee or a bite to eat.</t>
         </is>
       </c>
     </row>
@@ -4289,9 +4271,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Cafe, check out Salon De The Coin D'or located at 7V8H+CVV Salon De The Coin D'or, pre de la faculte des sciences de bizerte, Zarzouna. 
-It's perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 37.2681922, 9.8794017. For more details, visit their website at [link] or call them at [phone].</t>
+          <t>Salon De The Coin D'or is a Cafe located in Zarzouna, pre de la faculte des sciences de bizerte. It has a 4.1 rating based on 8 reviews and offers services from 06:00-23:00. Its coordinates are (37.2681922, 9.8794017).</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4370,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out Dar Binzart located at 7VFG+Q62 Dar Binzart, rue Garibaldi, Bizerte. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Dar+Binzart/data=!4m7!3m6!1s0x12e31e49691c921b:0x53b48f913c67efb1!8m2!3d37.2743847!4d9.8755127!16s%2Fg%2F12lvws9s0!19sChIJG5IcaUke4xIRse9nPJGPtFM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Dar Binzart is a cozy cafe nestled in the heart of Bizerte, Tunisia. Known for its vibrant atmosphere and friendly staff, it's a popular spot for locals and tourists alike. Located at the bustling rue Garibaldi (37.2725849, 9.8719093), the cafe is open daily from 6 AM to midnight. With a rating of 4.0 based on 6 reviews, Dar Binzart is praised for its welcoming ambiance and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4473,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a charming Salon de thé, check out Rondez-vous at 7VGG+5QX. This top-rated spot offers a cozy ambiance and delicious treats perfect for teatime lovers. With a rating of 4.7 out of 5, it's a must-visit destination. It's open daily from 5:30 AM to midnight. For more details, visit their website or call them at 21 927 570.</t>
+          <t>Rondez-vous is a celebrated tea room situated in Bizerte, Tunisia. With a remarkable rating of 4.7 out of 5, it enchants its patrons with a serene ambiance and a delectable menu. Nestled at the coordinates of (37.2725849, 9.8719093), Rondez-vous beckons tea enthusiasts to savor a tranquil respite amidst the city's vibrant streets.</t>
         </is>
       </c>
     </row>
@@ -4596,11 +4576,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe experience, check out TIGA CAFE SHOP located at 7VM6+WX5 TIGA CAFE SHOP, Rue 7 november, Bizerte. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-11:00, but closed on (no closed days listed). 
-To get there, use these GPS coordinates: 37.2725849, 9.8719093. 
-For more details, visit their website at (no website listed) or call them at 20 836 286.</t>
+          <t>TIGA CAFE SHOP is a cozy cafe located in the heart of Bizerte, Tunisia. It offers a wide range of beverages, including coffee, tea, and juices, as well as a selection of pastries and snacks. The cafe is conveniently located near the city center and has a warm and inviting atmosphere. With its friendly staff and delicious offerings, TIGA CAFE SHOP is a great place to relax and unwind.</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4679,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to grab a coffee, check out The Tree Coffee on Route panoramique corniche. With a 5.0 rating, it's a must-visit spot for coffee lovers. It offers a range of categories to choose from, and it's open daily from 08:00-22:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 24 318 318.</t>
+          <t>Located in Bizerte, Tunisia, The Tree Coffee is a cafeteria offering a wide range of beverages and snacks. Situated at coordinates (37.2725849, 9.8719093), The Tree Coffee is open daily from 8:00 AM to 10:00 PM, except for specific holidays.</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4778,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great coffee spot, check out Coffiana cafe located at 7VQ8+548 Coffiana cafe, Av. OMAR EL MOKHTAR, Bizerte. This top-rated destination has a rating of 5.0. To get there, use these GPS coordinates: 37.293832230787, 9.858175135506. For more details, call them at 56 688 611.</t>
+          <t>Coffiana cafe is located at 7VQ8+548, Av. OMAR EL MOKHTAR, Bizerte, Tunisia (37.293832230787, 9.858175135506). It's a cafe that offers a variety of coffee and tea drinks. It also serves pastries and sandwiches. The cafe has a 5.0 rating on Google and is open 24/7.</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4881,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Fawara Samir Bouchrit located at Avenue Farhat Hached, Bizerte 7016. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 03:00-00:00. To get there, use these GPS coordinates: 37.1740163, 10.0297964. For more details, visit their website at  or call them at 40 102 922.</t>
+          <t>Café Fawara Samir Bouchrit is a cafe located in Avenue Farhat Hached, Bizerte 7016, Tunisia, offering a cozy atmosphere to enjoy coffee, drinks, and snacks. It has received a 4.3 rating based on four reviews, and its weekday timing is from 3 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -5008,11 +4984,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Tapana located at Rue de cap bon zarzouna, Bizerte 7021. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 05:00-22:00. 
-To get there, use these GPS coordinates: 37.256166046108, 9.877645129859. 
-For more details, call them at 50 338 493.</t>
+          <t>Cafe Tapana is a highly-rated cafe located in the city of Bizerte (37.256166046108, 9.877645129859). It is open from 5 am to 10 pm every day, offering a cozy atmosphere and a variety of coffee and tea options. With a 4.6 rating based on 9 reviews, it is a popular choice for coffee lovers in the area.</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5079,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Blel located at Station Louages - Bizerte MB, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Blel/data=!4m7!3m6!1s0x12e3235aa22ab9e1:0xc99ec31cb68212da!8m2!3d37.1559185!4d9.7889999!16s%2Fg%2F11hmz5gm0h!19sChIJ4bkqoloj4xIR2hKCthzDnsk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Blel is a cafe located in Menzel Bourguiba, Tunisia. Its coordinates are (37.1489944, 9.788904). The cafe offers a variety of coffee and tea drinks. Additionally, food such as pizza and pastries are also provided. Cafe Blel is close to Bizerte, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -5202,7 +5174,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cafe Blel located at Station Louages - Bizerte MB, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Blel/data=!4m7!3m6!1s0x12e3235aa22ab9e1:0xc99ec31cb68212da!8m2!3d37.1559185!4d9.7889999!16s%2Fg%2F11hmz5gm0h!19sChIJ4bkqoloj4xIR2hKCthzDnsk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Blel is a highly-rated cafe located in Menzel Bourguiba, just outside of Bizerte, Tunisia. With a 5.0 rating based on one review, this cafe is a popular spot for locals and tourists alike. The cafe offers a variety of drinks and snacks, and is conveniently located near the Station Louages - Bizerte MB.</t>
         </is>
       </c>
     </row>
@@ -5305,8 +5277,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great cafe, check out Cafe Tapana located at Rue de cap bon zarzouna, Bizerte 7021. 
-With a rating of 4.6, it's a must-visit spot for cafe lovers. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 37.256166046108, 9.877645129859. For more details, visit their website or call them at 50 338 493.</t>
+          <t>Cafe Tapana is a highly-rated cafe nestled in the heart of Bizerte. Located at 37.256166046108 latitude and 9.877645129859 longitude, it offers a cozy ambiance for customers to relax and unwind. Cafe Tapana operates daily from 5 AM to 10 PM, inviting patrons to savor its exceptional offerings.</t>
         </is>
       </c>
     </row>
@@ -5405,9 +5376,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dar Salama located at Dar Salama, Route Panoramique De La Corniche Bizerte TN 7000, Bizerte. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at  or call them at 27 063 707.</t>
+          <t>Dar Salama is a guest house offering a 4.7-star rated experience in Bizerte, Tunisia, located at the panoramic Route De La Corniche with coordinates (37.275992, 9.8701015). Their contact number is 27 063 707.</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5479,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to stay, look no further than Dar El Kasba Bizerte, located at Dar El Kasba Bizerte, Bizerte. This top-rated hotel is perfect for travelers of all types and offers a range of amenities to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a hotel located in Bizerte, Tunisia. It offers a range of services, including comfortable and well-equipped rooms, a restaurant, and a bar. The hotel is located close to many of the city's attractions, including the Kasbah of Bizerte and the Bizerte Archaeological Museum.</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5578,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out dar sandra located at 7VHG+G85 dar sandra, Bizerte. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 99 666 888.</t>
+          <t>Offering a cozy stay, "dar sandra" is a charming guesthouse located in Bizerte (37.2725849, 9.8719093). Boasting 4.4-star ratings from satisfied guests, this establishment welcomes you with warm hospitality. With 8 positive reviews and a featured image showcasing its inviting ambiance, "dar sandra" is the perfect getaway for those seeking comfort and tranquility.</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5677,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dar Salama located at Dar Salama, Route Panoramique De La Corniche Bizerte TN 7000, Bizerte. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website  or call them at 27 063 707.</t>
+          <t>Dar Salama is a 4.7-rated guest house located at Route Panoramique De La Corniche in Bizerte, Tunisia. It offers a peaceful stay with scenic views.</t>
         </is>
       </c>
     </row>
@@ -5811,9 +5780,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to stay, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel,  Chambre d'hotes categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a hotel located in Bizerte, Tunisia. It offers chambres d'hotes in a traditional setting. The hotel has a 4.7 rating on Google and is located at (37.278705277416, 9.874433438938).</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5879,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Bizerte, dar sandra offers a memorable experience for Maison d'hotes enthusiasts. Rated 4.4, this top-rated destination boasts a range of categories to cater to your every need. Located at 7VHG+G85 dar sandra, Bizerte, it's easily accessible and a must-visit spot for those seeking an authentic Maison d'hotes encounter. To connect with the establishment, reach out at 99 666 888 or visit their website for more information.</t>
+          <t>Dar Sandra is a charming guesthouse located in the heart of Bizerte with GPS coordinates (37.2725849, 9.8719093). The guesthouse offers a warm and welcoming atmosphere, perfect for both business and leisure travelers. It offers a range of amenities to ensure a comfortable and enjoyable stay, including a beautiful featured image that showcases the property's stunning architecture and serene ambiance. Dar Sandra is highly rated by guests, with an average rating of 4.4 out of 5 stars, and has received positive reviews for its cleanliness, comfort, and excellent service.</t>
         </is>
       </c>
     </row>
@@ -6011,7 +5978,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a charming place to stay, check out Dar Salama located at Route Panoramique De La Corniche Bizerte TN 7000. This top-rated destination is perfect for those seeking a comfortable and relaxing stay. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 27 063 707.</t>
+          <t>Dar Salama is a chambre d'hotes located in Bizerte, Tunisia at the address " Route Panoramique De La Corniche Bizerte TN 7000". It's rating on Google is 4.7/5 after 26 reviews.</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6081,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to stay, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. This top-rated hotel is perfect for Hotel lovers and offers a range of Hotel, Chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a 4.7-star hotel in Bizerte, Tunisia. It offers 21 rooms and has a rating of 4.7 out of 5 on Google. The hotel is located at 37.278705277416, 9.874433438938 and can be contacted at 23 311 219.</t>
         </is>
       </c>
     </row>
@@ -6217,11 +6184,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Le Petit Olivier located at Q5XF+637 Le Petit Olivier, Douar Mrah - El Alia - Route De Bizerte, El Alia - Bizerte 2026. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.16911, 10.03478. 
-For more details, visit their website at https://top-best-luxury-hotels.blogspot.com/ or call them at 51 074 799.</t>
+          <t>Le Petit Olivier, a charming guest house nestled in the serene town of El Alia, offers a serene retreat for travelers. Situated at the coordinates (37.16911, 10.03478), the property boasts a central location and easy access to local attractions.</t>
         </is>
       </c>
     </row>
@@ -6320,7 +6283,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Bizerte, dar sandra offers a cozy haven for those seeking a memorable stay. With a remarkable rating of 4.4, it's a top-rated destination for discerning travelers. Located at 7VHG+G85 dar sandra, it offers a prime location for exploring the city's charm. To get there, simply follow the coordinates: 37.2725849, 9.8719093. For further details, you can reach them at 99 666 888.</t>
+          <t>Dar Sandra is a 4.4-rated guesthouse located in Bizerte, Tunisia. It offers a cozy and serene atmosphere for travelers seeking a comfortable and hospitable stay. With its convenient location, guests can easily explore the city's attractions while enjoying the comfort and amenities of Dar Sandra. The guesthouse is highly recommended for its excellent service, comfortable accommodations, and warm hospitality.</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6382,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dar Salama located at Dar Salama, Route Panoramique De La Corniche Bizerte TN 7000, Bizerte. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/Dar+Salama/data=!4m10!3m9!1s0x12e31dcd6a6b50cb:0x1b55f8359ba438c0!5m2!4m1!1i2!8m2!3d37.3235829!4d9.8587484!16s%2Fg%2F11c1xqg7yz!19sChIJy1Bras0d4xIRwDikmzX4VRs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 063 707.</t>
+          <t>Dar Salama is a charming guesthouse nestled in the picturesque city of Bizerte, Tunisia. It offers a memorable stay with its comfortable accommodations, located at (37.275992, 9.8701015). For more information, visit their website or contact them at 27 063 707.</t>
         </is>
       </c>
     </row>
@@ -6522,9 +6485,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to stay, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. 
-This top-rated destination is perfect for Hotel and Chambre d'hotes lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Nestled in the heart of Bizerte, Dar El Kasba is a charming hotel with a 4.7/5 rating. This delightful establishment offers its guests cozy rooms, a warm and welcoming atmosphere, and friendly service. Whether you're a tourist, a business traveler, or simply seeking a relaxing getaway, Dar El Kasba Bizerte is an excellent choice. Conveniently located at (37.278705277416, 9.874433438938), the hotel boasts easy access to the city's attractions and amenities. Don't miss the opportunity to indulge in a memorable and comfortable stay at Dar El Kasba Bizerte.</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6588,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a nice place to stay, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a 4.7-star hotel located in Bizerte, Tunisia. It offers comfortable rooms and suites with a traditional Tunisian décor. The hotel is situated in the heart of the city, close to the main attractions. It features a restaurant, bar, and a terrace with panoramic views of the city. The hotel is also conveniently located near the beach, making it an ideal place to stay for both business and leisure travelers.</t>
         </is>
       </c>
     </row>
@@ -6726,8 +6687,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a cozy stay, check out Dar Salama located at Route Panoramique De La Corniche Bizerte TN 7000. 
-This top-rated guest house is the perfect spot and offers a peaceful ambiance. With a rating of 4.7, it's a popular choice among travelers. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/Dar+Salama/data=!4m10!3m9!1s0x12e31dcd6a6b50cb:0x1b55f8359ba438c0!5m2!4m1!1i2!8m2!3d37.3235829!4d9.8587484!16s%2Fg%2F11c1xqg7yz!19sChIJy1Bras0d4xIRwDikmzX4VRs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 063 707.</t>
+          <t xml:space="preserve"> Dar Salama is a guest house located at Route Panoramique De La Corniche in Bizerte, Tunisia. It has a 4.7-star rating based on 26 reviews, and offers a featured image, website, and contact information. Dar Salama is a popular destination for tourists due to its proximity to the city center and its beautiful views of the Mediterranean Sea. The guest house offers a variety of amenities, including a swimming pool, a restaurant, and a bar.</t>
         </is>
       </c>
     </row>
@@ -6830,7 +6790,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated hotel, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. With a rating of 4.7, this is a must-visit spot for Hotel lovers and offers a range of Hotel and Chambre d'hotes to choose from. To get there, use these GPS coordinates: (37.278705277416, 9.874433438938). For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a hotel in Bizerte, Tunisia, offering both hotel and bed and breakfast options. It is located at 37.278705277416 latitude and 9.874433438938 longitude. The hotel has received 21 reviews and has a rating of 4.7, with positive reviews mentioning the quality of the rooms and service. It offers easy access to popular tourist destinations in the area.</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6893,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Chambre d'hotes, Le Petit Olivier is the perfect spot for you. Located at Q5XF+637 Le Petit Olivier, Douar Mrah - El Alia - Route De Bizerte, El Alia - Bizerte 2026, this destination offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.16911, 10.03478. For more details, visit their website at https://top-best-luxury-hotels.blogspot.com/ or call them at 51 074 799.</t>
+          <t>Le Petit Olivier, a 4.3-rated guest house located in El Alia, Bizerte (coordinates: 37.16911, 10.03478).</t>
         </is>
       </c>
     </row>
@@ -7032,7 +6992,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a charming and comfortable stay, check out dar sandra located at 7VHG+G85 dar sandra, Bizerte. This top-rated Maison d'hotes is perfect for those seeking a peaceful and relaxing getaway. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/dar+sandra/data=!4m10!3m9!1s0x12e31e4927f80e15:0x88f0455ab17da357!5m2!4m1!1i2!8m2!3d37.2787539!4d9.8758623!16s%2Fg%2F11fcnzk_4z!19sChIJFQ74J0ke4xIRV6N9sVpF8Ig?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 666 888.</t>
+          <t>Dar sandra is a guest house located in Bizerte, Tunisia. It offers a 4.4-star rating and features 8 reviews. The guest house is owned by Dar Sandra and has a main category of Guest house.</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7091,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-notch Chambre d'hotes, Dar Salama is the place to be. Located at Dar Salama, Route Panoramique De La Corniche Bizerte TN 7000, Bizerte, this highly-rated destination has earned a 4.7 rating from past visitors. They offer a range of services to choose from, making it a must-visit spot for Chambre d'hotes enthusiasts. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, you can reach them at 27 063 707.</t>
+          <t>Dar Salama is a 4.7 stars rated chambre d'hotes located in Bizerte, Tunisia. It is situated on the panoramic Route de la Corniche, offering stunning views of the Mediterranean Sea. The establishment has 26 reviews and offers a variety of amenities, including a restaurant, a bar, and a garden. It is open all year round and accepts reservations online.</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7194,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a place to stay, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. This top-rated destination is perfect for hotel lovers and offers a range of hotel and chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Nestled in the heart of Bizerte, Dar El Kasba is a charming hotel that offers unparalleled comfort and authentic Tunisian hospitality. The hotel's convenient location places guests within easy reach of the city's captivating attractions and picturesque shoreline. With its luxurious guestrooms, warm ambiance, and attentive service, Dar El Kasba invites guests to indulge in a memorable stay while exploring the captivating sights and sounds of Bizerte.</t>
         </is>
       </c>
     </row>
@@ -7333,9 +7293,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a Maison d'hotes, check out dar sandra located at 7VHG+G85 dar sandra, Bizerte. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, call them at 99 666 888.</t>
+          <t>Dar Sandra is a 4-star guest house located in Bizerte, Tunisia. It offers a warm and welcoming atmosphere with its 8 cozy rooms, each equipped with a private bathroom. The guest house is situated at the coordinates (37.2725849, 9.8719093), close to the city center. It features a convenient location for exploring Bizerte's attractions and enjoying the local culture.</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7392,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated place for Chambre d'hotes, Dar Salama is a must-visit spot. Located at Route Panoramique De La Corniche Bizerte TN 7000, Bizerte, this haven for Chambre d'hotes lovers boasts a rating of 4.7. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 27 063 707.</t>
+          <t>Immerse yourself in the tranquility of Dar Salama, a 4.7-star guest house nestled in the picturesque city of Bizerte. Scenic panoramic views await you, with the coordinates (37.275992, 9.8701015) guiding your way. Its prime location offers a blend of relaxation and exploration. While information on its offerings and facilities is limited, Dar Salama promises a serene haven for discerning travelers.</t>
         </is>
       </c>
     </row>
@@ -7537,9 +7495,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a place to stay, check out Dar El Kasba Bizerte located at Dar El Kasba Bizerte, Bizerte. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Chambre d'hotes to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.278705277416, 9.874433438938. For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a well-rated hotel located in Bizerte, Tunisia, at coordinates (37.278705277416, 9.874433438938). It offers a range of accommodations, including hotel rooms and guest rooms. The hotel has received positive reviews for its clean and comfortable accommodations, as well as its friendly and helpful staff. It is a popular choice for tourists visiting Bizerte.</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7594,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a charming accommodation, consider dar sandra, a top-rated Maison d'hotes located at 7VHG+G85 dar sandra, Bizerte. With a rating of 4.4, it's a must-visit spot for Maison d'hotes enthusiasts. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, call them at 99 666 888.</t>
+          <t>Dar Sandra is a guest house in Bizerte, Tunisia, located at coordinates (37.2725849, 9.8719093). It has received a 4.4 rating from 8 reviews and offers a featured image at the link https://lh5.googleusercontent.com/p/AF1QipPr7jmsxTYXjtdh0DZD57y4LKOK_4Vh5fh-LRc_=w408-h272-k-no. For more information, visit its website or contact the owner, dar sandra (proprietaire), at 99 666 888.</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7693,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dar Salama located at Dar Salama, Route Panoramique De La Corniche Bizerte TN 7000, Bizerte. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at or call them at 27 063 707.</t>
+          <t>Dar Salama is a charming bed and breakfast located in Bizerte, Tunisia. It offers stunning views of the Mediterranean Sea and is close to the city's main attractions. The property features 26 comfortable rooms with private bathrooms, a shared lounge, a garden, as well as a restaurant and a bar. Guests can enjoy free Wi-Fi throughout the property and private parking is available on site.</t>
         </is>
       </c>
     </row>
@@ -7840,7 +7796,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Bizerte, Dar El Kasba Bizerte is a top-rated hotel perfect for travelers seeking a comfortable and charming stay. This establishment offers a range of accommodations, including both hotel rooms and guest rooms. With a rating of 4.7 stars, it's a must-visit spot for those looking for a memorable lodging experience. Dar El Kasba Bizerte is conveniently located at Dar El Kasba Bizerte, Bizerte. To get there, you can use these GPS coordinates: (37.278705277416, 9.874433438938). For more details, visit their website at https://www.hotelstunisian.com/dar-el-kasba-bizerte/ or call them at 23 311 219.</t>
+          <t>Dar El Kasba Bizerte is a 4.7-rated hotel located in Bizerte, Tunisia. It offers a range of amenities to its guests, including comfortable rooms, a restaurant, and a bar. The hotel is situated in a convenient location, making it easy for guests to explore the city and its surroundings.</t>
         </is>
       </c>
     </row>
@@ -7939,11 +7895,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a Maison d'hotes, check out dar sandra located at 7VHG+G85 dar sandra, Bizerte. 
-This top-rated destination is perfect for Maison d'hotes lovers. 
-With a rating of 4.4, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.2725849, 9.8719093. 
-For more details, visit their website at https://www.google.com/maps/place/dar+sandra/data=!4m10!3m9!1s0x12e31e4927f80e15:0x88f0455ab17da357!5m2!4m1!1i2!8m2!3d37.2787539!4d9.8758623!16s%2Fg%2F11fcnzk_4z!19sChIJFQ74J0ke4xIRV6N9sVpF8Ig?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 666 888.</t>
+          <t>Dar Sandra is a guesthouse located in the city of Bizerte, Tunisia. The guest house has 8 reviews with an average rating of 4.4. It offers a variety of amenities, including its heartwarming hospitality and comfortable accommodations. Dar Sandra is situated in a convenient location, making it an ideal choice for travelers looking to explore the city.</t>
         </is>
       </c>
     </row>
@@ -8042,7 +7994,8 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Vieux Port De Bizerte located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de, Bizerte. This top-rated destination is perfect for Port de plaisance lovers and offers a range of Attraction touristique options to choose from. With a rating of 4.5, it's a must-visit spot. Its open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Vieux+Port+De+Bizerte/data=!4m7!3m6!1s0x12e31e48ce66abbf:0xf8f36f678d51cc4d!8m2!3d37.2771396!4d9.8746004!16s%2Fg%2F11c56bjfx5!19sChIJv6tmzkge4xIRTcxRjWdv8_g?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Vieux Port De Bizerte**
+Located in the picturesque city of Bizerte, the Vieux Port De Bizerte is a vibrant and historic port brimming with charm. Boasting a vibrant atmosphere and a stunning waterfront location (37.2725849 longitude and 9.8719093 latitude), this port offers a unique experience for visitors.</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8102,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to eat, check out Restaurant Le Sport Nautique located at Quai Tarak Ibn Ziad, Bizerte 7000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-15:00, 19:00-23:00, but closed on None. To get there, use these GPS coordinates: 37.2724144, 9.8793804. For more details, visit their website at https://www.facebook.com/pages/Restaurant-Le-Sport-Nautique/139232646147524 or call them at 72 432 262.</t>
+          <t>Restaurant Le Sport Nautique is well-known for its exceptional seafood and fish dishes in Bizerte. It offers a delightful dining experience with its stunning waterfront views, providing a charming ambiance as you savor your meal. With an impressive rating of 4.0 based on 286 reviews, this restaurant has garnered praise for its attentive service,美味的食物, and reasonable pricing. If you're visiting Bizerte and craving some of the freshest seafood and fish, Restaurant Le Sport Nautique is definitely worth a visit.</t>
         </is>
       </c>
     </row>
@@ -8254,13 +8207,7 @@
           <t>bizerte</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>If you're in bizerte and looking for a delicious meal, check out Restaurant Le Phenicien located at Vieux Port, Bizerte 7000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of dishes to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 37.2757928, 9.8759917. For more details, visit their Facebook page at https://www.facebook.com/LePhenicienBizerte or call them at 72 424 480.</t>
-        </is>
-      </c>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8361,7 +8308,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a relaxing stay, check out Hotel Jalta located at Route De La Corniche Bizerte, 7000. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Cafe et restaurant de grillades, and Restaurant. With a rating of 3.2, it's a must-visit spot. Its open during these hours: nan, but closed on . To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at nan or call them at 72 439 949.</t>
+          <t>Hotel Jalta is a relaxed hotel with two restaurants, an outdoor pool, and a private beach with a snack bar. It's located in Bizerte, Tunisia, at the coordinates (37.275992, 9.8701015).</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8415,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, check out Restaurant lounge le Quai Bizerte located at 7VFJ+QWJ Restaurant lounge le Quai Bizerte, Marina, Bizerte 7000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 3.0, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on []. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.facebook.com/leQuai.B/ or call them at 72 438 888.</t>
+          <t>Restaurant lounge le Quai Bizerte is a restaurant located in Bizerte, Tunisia. It offers a variety of dishes, including seafood, pasta, and lamb. The restaurant is located at 7VFJ+QWJ Restaurant lounge le Quai Bizerte, Marina, Bizerte 7000. The restaurant is open from 07:30 to 00:00 every day of the week.</t>
         </is>
       </c>
     </row>
@@ -8563,9 +8510,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Vieux Port! 
-This top-rated destination is perfect for Point d'eau lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.27842, 9.87795. For more details, visit their website at https://www.google.com/maps/place/Vieux+Port/data=!4m7!3m6!1s0x12e31e48eba09171:0x99566d8cebb1fa5e!8m2!3d37.2776374!4d9.8750249!16s%2Fg%2F12hr7hqx6!19sChIJcZGg60ge4xIRXvqx64xtVpk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Vieux Port is a waterfront destination located in Bizerte, Tunisia. Situated at (37.27842, 9.87795), this charming area is known for its vibrant atmosphere and scenic views. The port offers a variety of activities, including boat tours, fishing, and dining at the many cafes and restaurants that line the waterfront. Additionally, Vieux Port is known for its history and culture, and visitors can explore the old city walls and fortifications.</t>
         </is>
       </c>
     </row>
@@ -8672,7 +8617,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out LA PLAYA located at 9 Rue Bourguiba, Bizerte. This top-rated spot is known for Restaurant and offers a range to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.facebook.com/playa.bizerte/ or call them at 22 187 879.</t>
+          <t>LA PLAYA is an establishment located in Bizerte, Tunisia, at the coordinates (37.15368, 9.78594). It is a restaurant that offers a variety of dishes, including pizzas. The restaurant has a 3.7 rating on Google, with reviewers mentioning its affordable prices, good food, and friendly service. LA PLAYA is open from 8:00 AM to midnight, and it is located on 9 Rue Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8720,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a place to eat, check out Restaurant Les Grottes located at Restaurant Les Grottes, Les Grottes 7035, Bizerte. This popular restaurant is perfect for Restaurant lovers and has a rating of 3.4. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.2376895, 9.8624617. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Les+Grottes/data=!4m7!3m6!1s0x12e31c37ed0b2605:0xb65317eff3ff22ad!8m2!3d37.333036!4d9.846764!16s%2Fg%2F11cp9sqn6h!19sChIJBSYL7Tcc4xIRrSL_8-8XU7Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 231 232.</t>
+          <t>Restaurant Les Grottes, a dining establishment located in Bizerte, Tunisia, boasts a 3.4-star rating based on 100 reviews. Situated at Les Grottes 7035, the restaurant is open 24 hours a day, providing a convenient dining option for locals and visitors alike. Its menu includes a range of culinary delights, with pizza being a popular choice among patrons. The establishment also offers a stunning view of the surrounding area, making it an ideal spot for a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8827,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out HIPPO LAND located at HIPPO LAND, Boulevard Habib Bougatfa,. This top-rated destination is perfect for Centre de loisirs lovers and offers a range of Centre de loisirs and Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 37.277402345635, 9.877438516257. For more details, visit their website at https://www.facebook.com/HIPPOLAND.BIZERTE/ or call them at 97 716 000.</t>
+          <t>Hippo Land is a popular leisure centre and restaurant in Bizerte, known for its spacious and enjoyable play areas for children. Located on Boulevard Habib Bougatfa, it offers a fun-filled experience for families, with a wide range of activities and entertainment options. Rated 4.3 out of 5 based on over 70 reviews, visitors praise its excellent service, reasonable prices, and kid-friendly atmosphere.</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8930,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to eat, check out Bougainville located at rue ali nouri entree hotel jalta corniche bizerte, 7000. This top-rated destination is perfect for Pizzeria and Restaurant lovers and offers a range of categories to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/Bougainville/data=!4m7!3m6!1s0x12e31e65819660f5:0x3c8b34df2db1b1b9!8m2!3d37.2980554!4d9.8680622!16s%2Fg%2F11d_74mj3j!19sChIJ9WCWgWUe4xIRubGxLd80izw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 664 536.</t>
+          <t>Bougainville is a 3.6 stars rated pizzeria located in Bizerte, Tunisia. It has a good number of reviews and its most common review keywords are "musique" (music), "petit-dejeuner" (breakfast) and "prix" (price). The daily working hours of Bougainville are from 7:00 to 1:00.</t>
         </is>
       </c>
     </row>
@@ -9088,7 +9033,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated cafe et restaurant de grillades, check out Azur beach located at 563P+VM8 Azur beach, plage port Ghar el melh sidi ali elmaki, Bizerte 7033. With a rating of 4.5, it's a must-visit spot for cafe et restaurant de grillades lovers. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 37.1606589, 10.1227321. For more details, visit their website at https://www.google.com/maps/place/Azur+beach/data=!4m7!3m6!1s0x12e2c05fc58d9727:0x9676ab463a1e394d!8m2!3d37.154659!4d10.2366903!16s%2Fg%2F11c0rbdmsk!19sChIJJ5eNxV_A4hIRTTkeOkardpY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 802 907.</t>
+          <t>Immerse yourself in the serene ambiance of Azur beach, a haven nestled in the picturesque Azur beach, plage port Ghar el melh sidi ali elmaki. This delightful establishment delights patrons with a delectable menu featuring grilled specialties, tantalizing taste buds with every bite. Conveniently located at coordinates (37.1606589, 10.1227321) and proudly boasting a 4.5-star rating, Azur beach offers a perfect blend of culinary artistry and seaside charm.</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9132,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a place to stay, check out Marina Bizerte located at 7VHH+WC4 Marina Bizerte, Bizerte. This top-rated destination is perfect for apartment lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Marina+Bizerte/data=!4m7!3m6!1s0x12e31e47ec95e3d5:0xc6351c91c8822a90!8m2!3d37.2797679!4d9.8785697!16s%2Fg%2F11c5h35ty3!19sChIJ1eOV7Ece4xIRkCqCyJEcNcY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 708 819.</t>
+          <t>Marina Bizerte is a residential complex located in Bizerte, with coordinates (37.2725849, 9.8719093). It features apartments and offers a range of amenities to its residents. The complex has received positive reviews, with an average rating of 4.1 out of 5, and it is managed by Marina Bizerte (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -9294,9 +9239,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a delicious meal, head to La Costa Coucou Beach Bizerte located at La Costa Coucou Beach Bizerte, Coucou Beach Bizerte, Ghar El Melh 7033. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: 09:30-18:00, but closed on . To get there, use these GPS coordinates: 37.1606589, 10.1227321. For more details, visit their website at https://www.lacostacocobeach.com/ or call them at 25 058 059.</t>
+          <t>La Costa Coucou Beach Bizerte is a restaurant located in Ghar El Melh, only 2 hours from the city of Tunis, in the north of the country. The restaurant offers a beautiful view of the sea and has a lounge area. On the menu you will find dishes such as pizza, burgers and wraps. The restaurant is open from 9:30am to 6pm and is closed on Fridays.</t>
         </is>
       </c>
     </row>
@@ -9391,9 +9334,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Lac de Bizerte located at Lac de Bizerte. 
-This top-rated destination is perfect for Lac lovers and offers a range of Lac categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.18332, 9.86671. For more details, visit their website at https://www.google.com/maps/place/Lac+de+Bizerte/data=!4m7!3m6!1s0x12e318a934436847:0x47f9441f158a5e63!8m2!3d37.1946281!4d9.8683073!16s%2Fg%2F121qg2wc!19sChIJR2hDNKkY4xIRY16KFR9E-Uc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Lac de Bizerte is a lake located in Bizerte, Tunisia. The lake is a popular tourist destination offering breathtaking views. The coordinates of the lake are (37.18332, 9.86671).</t>
         </is>
       </c>
     </row>
@@ -9488,7 +9429,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cap Bizerte located at Cap Bizerte. This top-rated destination is perfect for Land mass lovers and offers a range of Land mass to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.33425, 9.86311. For more details, visit their website at https://www.google.com/maps/place/Cap+Bizerte/data=!4m7!3m6!1s0x12e31dcb777c20fd:0xb52991d6330013e3!8m2!3d37.3290153!4d9.8613286!16s%2Fg%2F12215ghc!19sChIJ_SB8d8sd4xIR4xMAM9aRKbU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cap Bizerte is a land mass located in Bizerte, Tunisia. It is a popular tourist destination, offering stunning views of the Mediterranean Sea and the surrounding countryside. Cap Bizerte is also home to a number of historical and cultural attractions, including the Kasbah of Bizerte and the Sidi Bou Said Mosque. The coordinates of Cap Bizerte are (37.33425, 9.86311).</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9532,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out La corniche Bizerte located at 7VX8+HGQ La corniche Bizerte, 8 rue essanouber corniche, Bizerte 7003. This top-rated destination is perfect for Villa lovers and offers a range of Villa categories to choose from. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.2811477, 9.8663297. For more details, visit their website at http://pulseelectronic.com/ or call them at 94 365 875.</t>
+          <t>La corniche Bizerte is a villa located in bizerte. It offers a variety of amenities, including a private beach, a swimming pool, and a tennis court. The villa is also close to a number of restaurants and shops. The location of the villa is ideal for those who want to enjoy the peace and quiet of the countryside while still being close to the amenities of the city.</t>
         </is>
       </c>
     </row>
@@ -9690,9 +9631,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Grillez vos poissons located at 7VGG+C2F Grillez vos poissons, Bizerte. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, call them at 50 375 241.</t>
+          <t>"Grillez vos poissons" is a seafood restaurant located in Bizerte, Tunisia. It is known for its delicious grilled fish dishes, and has received positive reviews from customers. The restaurant offers a warm and friendly atmosphere, and is a great place to enjoy a meal with friends or family. It is located at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9730,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a well-rated holiday apartment destination, Appartement Le Jasmin vue sur mer might be what you're looking for. Located at 7VJG+QJG Appartement Le Jasmin vue sur mer, Bizerte, this 4.5-rated place is perfect for Location d'appartement de vacances lovers. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Appartement Le Jasmin vue sur mer is a vacation apartment rental located at 7VJG+QJG Appartement Le Jasmin vue sur mer, Bizerte. It offers a beautiful view of the sea. The apartment has received ratings of 4.5 out of 5 stars, indicating a high level of satisfaction among guests. It is easily accessible and conveniently located, making it an ideal choice for those seeking a comfortable stay in Bizerte.</t>
         </is>
       </c>
     </row>
@@ -9997,9 +9936,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reputable university, check out Institut Superieur des Sciences de la Mer de Bizerte located at 7W35+JQ3 Institut Superieur des Sciences de la Mer de Bizerte, Menzel Jemil. 
-This top-rated destination is perfect for university lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at http://www.ispab.agrinet.tn/ or call them at 72 440 070.</t>
+          <t>The Institut Superieur des Sciences de la Mer de Bizerte is a higher education institution located in Menzel Jemil, Bizerte. It offers a range of programs in marine science and related fields. The institute is located near the coast, providing students with access to a variety of marine habitats for research and study. Website: http://www.ispab.agrinet.tn/ Phone: 72 440 070 Coordinates: (37.2291348, 9.9224329)</t>
         </is>
       </c>
     </row>
@@ -10090,7 +10027,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a port to visit, check out Marsa de Bizerte located at Marsa de Bizerte, Bizerte. This top-rated destination is perfect for port lovers and offers a range of port activities to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.27442, 9.87391.</t>
+          <t>The Marsa de Bizerte is a port located in Bizerte, Tunisia (lon: 9.87391, lat: 37.27442). It is a popular destination for both locals and tourists, offering a variety of activities and attractions. The port is home to a number of restaurants, cafes, and shops, as well as a marina and a beach. Visitors can also enjoy boat tours of the harbor and the surrounding area.</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10126,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Port de Peche de Menzel Abderrahmane located at Port de Peche de Menzel Abderrahmane, Menzel abderrahmen rue sidi ali Hachani, Bizerte 7035. This top-rated destination is perfect for Site de peche lovers and offers a range of Site de peche and Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on []. To get there, use these GPS coordinates: 37.2319, 9.86234. For more details, visit their website at https://www.google.com/maps/place/Port+de+P%C3%AAche+de+Menzel+Abderrahmane/data=!4m7!3m6!1s0x12e31f96aaaaaaab:0x2ff277546f0e19e6!8m2!3d37.232147!4d9.862164!16s%2Fg%2F12hk_mqmb!19sChIJq6qqqpYf4xIR5hkOb1R38i8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Discover the Port de Peche de Menzel Abderrahmane in Bizerte, Tunisia. Situated at (37.2319, 9.86234), this popular fishing port offers a charming blend of fishing activities and leisurely pursuits. Enjoy a delicious meal at the nearby cafe, and soak in the ambiance of this vibrant hub of maritime life.</t>
         </is>
       </c>
     </row>
@@ -10290,7 +10227,11 @@
           <t>bizerte</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>Les Dents De La Mer is a fishing bait shop located in Bizerte, Tunisia, at coordinates (37.273208031221, 9.876809715373). The shop is open from 9:00 am to 6:00 pm and is rated 5.0 out of 5 stars by one reviewer.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10389,7 +10330,11 @@
           <t>bizerte</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>Les Dents De La Mer is a 5-star rated bait and tackle shop located in Bizerte, Tunisia. It offers a wide selection of fishing gear and supplies and is open from 9 AM to 6 PM daily. The shop's owner is active on Google Maps, and they have received one review so far.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10494,10 +10439,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in bizerte and searching for an educational destination, consider Institut Superieur des Sciences de la Mer de Bizerte situated at 7W35+JQ3 Institut Superieur des Sciences de la Mer de Bizerte, Menzel Jemil. 
-This top-rated place offers a range of Universite courses to select from. With a 4.0 rating, it's highly recommended. 
-It's open 24 hours a day, making it convenient for visitors. 
-For more details, explore their website at http://www.ispab.agrinet.tn/ or contact them at 72 440 070.</t>
+          <t>The Institut Superieur des Sciences de la Mer de Bizerte is a higher education institution located in Bizerte, Tunisia. The institute specializes in marine sciences and offers undergraduate and graduate programs in a variety of disciplines, including marine biology, oceanography, and fisheries science. The institute is located on the shores of the Mediterranean Sea and has access to a variety of research facilities, including a research vessel and a marine laboratory. The institute is also home to a number of research centers, including the Center for Marine Biodiversity and Conservation and the Center for Coastal and Marine Management.</t>
         </is>
       </c>
     </row>
@@ -10596,9 +10538,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Vieux Port De Bizerte located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de.
-This top-rated destination is perfect for Port de plaisance and Attraction touristique lovers and offers a range of Port de plaisance, Attraction touristique to choose from.
-With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: (37.2725849, 9.8719093). For more details, visit their website at https://www.google.com/maps/place/Vieux+Port+De+Bizerte/data=!4m7!3m6!1s0x12e31e48ce66abbf:0xf8f36f678d51cc4d!8m2!3d37.2771396!4d9.8746004!16s%2Fg%2F11c56bjfx5!19sChIJv6tmzkge4xIRTcxRjWdv8_g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the heart of Bizerte (37.2725849, 9.8719093), the Vieux Port de Bizerte offers a fascinating fusion of history and modern amenities. Visitors are mesmerized by its vibrant colors, charming cafes, and lively atmosphere. As a renowned marina, it serves as a haven for boat enthusiasts and provides access to the Mediterranean Sea. Its proximity to the city center makes it an ideal starting point to explore the cultural heritage and attractions of Bizerte. Whether you're a local or a tourist, the Vieux Port de Bizerte promises an unforgettable experience.</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10637,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a place to experience nature, Foret du Rimel is the perfect destination. Located at 6XHJ+323 Foret du Rimel, Autoroute Tunis-Bizerte, Menzel Jemil, this top-rated national forest offers a range of activities for nature lovers. With a rating of 4.4, it's a must-visit spot! To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Foret du Rimel is a 3025 acres national forest located at 6XHJ+323 Foret du Rimel, Autoroute Tunis-Bizerte, Menzel Jemil. It offers a variety of activities such as camping, hiking, biking, and picnicking. The forest is also home to a variety of wildlife, including deer, wild boar, and foxes. The forest is open year-round, and admission is free.</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10732,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Medina de Bizerte located at 7VHG+H68 Medina de Bizerte, Bizerte. This top-rated destination is perfect for Site historique lovers and is a must-visit spot with a rating of 4.4. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 37.27815, 9.87673. For more details, visit their website at  or call them at nan.</t>
+          <t>Medina de Bizerte is a historical site located in the city of Bizerte,Tunisia. The small streets of the medina are a popular tourist destination, as they offer a glimpse into the city's rich history and culture. The medina is home to a number of shops and restaurants. With a rating of 4.4 out of 5 stars, tourists will enjoy visiting a place with great reviews. It is located at 37.27815° N, 9.87673° E.</t>
         </is>
       </c>
     </row>
@@ -10887,7 +10827,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Eglise Saint-Alexandre-Nevski de Bizerte located at 7V97+2FG Eglise Saint-Alexandre-Nevski de Bizerte, Place Anastasia Manstein-Chirinsky, Bizerte 7000. This top-rated destination is perfect for Eglise lovers and offers a range of categories to choose from, including Lieu historique, Eglise orthodoxe russe, and Attraction touristique. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/%C3%89glise+Saint-Alexandre-Nevski+de+Bizerte/data=!4m7!3m6!1s0x12e31fac974a985b:0x2e6e0b1a44740384!8m2!3d37.2675744!4d9.8637049!16s%2Fg%2F120m0nxy!19sChIJW5hKl6wf4xIRhAN0RBoLbi4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Eglise Saint-Alexandre-Nevski de Bizerte is a popular tourist attraction and historical landmark in the city of Bizerte, Tunisia. The church offers a unique blend of architectural styles, with a mix of Byzantine and Russian Orthodox influences. Its notable features include intricate mosaics, domes, and stained glass windows.</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10922,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a historic site, check out Fort d'Espagne located at 7VJC+79G Fort d'Espagne, Bizerte. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Lieu historique, Musee, Attraction touristique to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167. For more details, visit their website at https://www.google.com/maps/place/Fort+d%27Espagne/data=!4m7!3m6!1s0x12e31e450a827723:0x9e802d56fcc8cf39!8m2!3d37.2806849!4d9.8709564!16s%2Fg%2F11c5_zjs64!19sChIJI3eCCkUe4xIROc_I_FYtgJ4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at owner {'id': None, 'name': "Fort d'Espagne (proprietaire)", 'link': None}.</t>
+          <t>Fort d'Espagne is a historical site located in Bizerte, Tunisia. It is a must-see tourist attraction with a rating of 4.7 out of 5. The fort offers a glimpse into the region's rich history and is a popular destination for history buffs and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11017,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out La Ksiba located at 7VHG+9R4 La Ksiba, Blvd Habib Bougatfa, Bizerte. This top-rated destination is perfect for Lieu historique lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 37.277402345635, 9.877438516257. For more details, visit their website at https://www.google.com/maps/place/La+Ksiba/data=!4m7!3m6!1s0x12e31f6220e5df89:0xf59bfe55d50d26d6!8m2!3d37.2783948!4d9.8770838!16s%2Fg%2F11qq3drfct!19sChIJid_lIGIf4xIR1iYN1VX-m_U?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**La Ksiba** in **Bizerte** (Location:37.277402345635, 9.877438516257) is a historical site and landmark. Its rating is 4.2 out of 5.</t>
         </is>
       </c>
     </row>
@@ -11172,7 +11112,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Arc Bou Amoud. Located at 7VGF+XM7 Arc Bou Amoud, Rue Arc Bou Amoud, Rue de la Regence, it's the perfect destination for Monument lovers. Open during these hours:  but closed on  .Arc Bou Amoud has a rating of 4.1, making it a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit https://www.google.com/maps/place/Arc+Bou+Amoud/data=!4m7!3m6!1s0x12e31e48cbc8c023:0x3f74d3e92807424b!8m2!3d37.277425!4d9.8741689!16s%2Fg%2F1hc27xvrs!19sChIJI8DIy0ge4xIRS0IHKOnTdD8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Arc Bou Amoud, located in Bizerte, is a historical monument that holds a rating of 4.1. The precise coordinates of this landmark are (37.2725849, 9.8719093), making it easily accessible for visitors.</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11211,10 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Vieux Port De Bizerte located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de, Bizerte. This top-rated destination is perfect for Port de plaisance lovers and offers a range of categories to choose from, including Port de plaisance and Attraction touristique. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Vieux+Port+De+Bizerte/data=!4m7!3m6!1s0x12e31e48ce66abbf:0xf8f36f678d51cc4d!8m2!3d37.2771396!4d9.8746004!16s%2Fg%2F11c56bjfx5!19sChIJv6tmzkge4xIRTcxRjWdv8_g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Vieux Port De Bizerte is a port in Bizerte (Tunisia), located at (37.2725849, 9.8719093).
+It is a bustling port with a variety of activities and attractions. Visitors can enjoy the many cafes and restaurants along the waterfront, or take a boat trip to explore the surrounding area.
+The port is also home to a number of historical sites, including the Kasbah of Bizerte and the old city walls.
+With its beautiful scenery and rich history, the Vieux Port De Bizerte is a must-see for any visitor to Tunisia.</t>
         </is>
       </c>
     </row>
@@ -11370,7 +11313,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great day out, head to Foret du Rimel. This beautiful forested area is the perfect spot to explore on foot or by bike. You can also enjoy a picnic or go for a swim in the nearby lake. The forest is open daily from 7am to 7pm and it's a great place to visit all year round.</t>
+          <t>Foret du Rimel is a national forest located in Menzel Jemil, Tunisia, with coordinates (37.2291348, 9.9224329). It is a popular tourist attraction, known for its beautiful beach and ample space for camping and sports activities. With an average rating of 4.4 stars and 182 reviews, Foret du Rimel offers a great opportunity to enjoy nature and relax by the sea.</t>
         </is>
       </c>
     </row>
@@ -11465,7 +11408,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you find yourself in bizerte yearning for a captivating historical immersion, wander through the Medina de Bizerte, nestled in 7VHG+H68. This top-rated gem has garnered a remarkable 4.4-star rating, making it an unmissable destination for history enthusiasts. With its labyrinthine alleys and rich heritage, it's a must-visit spot for tourists. For further details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Bizerte/data=!4m7!3m6!1s0x12e31fd266e951ef:0xe00f37912359e5b1!8m2!3d37.2789201!4d9.8755657!16s%2Fg%2F11kxqw1y8d!19sChIJ71HpZtIf4xIRseVZI5E3D-A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medina of Bizerte is a historical site in Bizerte, Tunisia. Visitors can wander through its ancient, narrow streets and experience the city's rich history and culture. It's a great place to learn about the region's past.</t>
         </is>
       </c>
     </row>
@@ -11560,7 +11503,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Eglise Saint-Alexandre-Nevski de Bizerte located at 7V97+2FG Eglise Saint-Alexandre-Nevski de Bizerte, Place Anastasia Manstein-Chirinsky, Bizerte 7000. This top-rated destination is perfect for Eglise lovers and offers a range of Eglise, Lieu historique, Eglise orthodoxe russe, Attraction touristique to choose from. With a rating of 4.3, it's a must-visit spot. For more details, visit their website at  or call them at  .</t>
+          <t>The Eglise Saint-Alexandre Nevski de Bizerte, a Russian Orthodox church, is located in Bizerte, Tunisia. With a 4.3-star rating based on 37 reviews, it's a popular tourist destination and historical landmark. Check out its featured image to get a glimpse of this architectural marvel.</t>
         </is>
       </c>
     </row>
@@ -11655,7 +11598,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a fun historical experience, check out Fort d'Espagne located at 7VJC+79G Fort d'Espagne, Bizerte. This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including Site historique, Lieu historique, Musee, and Attraction touristique. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167.</t>
+          <t>Fort d'Espagne is a historical site located in Bizerte, Tunisia (37.28222, 9.87167). With an average rating of 4.7 out of 5 stars from 17 reviews, it offers a unique historical experience as a museum and tourist attraction, categorized as a historical site, place, and attraction.</t>
         </is>
       </c>
     </row>
@@ -11750,7 +11693,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a historical adventure, visit La Ksiba, located at 7VHG+9R4 La Ksiba, Blvd Habib Bougatfa. This top-rated destination is a must-visit for history buffs, offering a journey through time to explore the rich history of the region. With a rating of 4.2, this site guarantees an immersive and unforgettable experience. To get there, use these GPS coordinates: 37.277402345635, 9.877438516257. For more details, visit their website at https://www.google.com/maps/place/La+Ksiba/data=!4m7!3m6!1s0x12e31f6220e5df89:0xf59bfe55d50d26d6!8m2!3d37.2783948!4d9.8770838!16s%2Fg%2F11qq3drfct!19sChIJid_lIGIf4xIR1iYN1VX-m_U?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Ksiba is a historical site located at the coordinates (37.2774023456, 9.877438516) and can be found on Google Maps using the place ID ChIJid_lIGIf4xIR1iYN1VX-m_U. With 12 reviews and a rating of 4.2, La Ksiba falls under the category of historical place and offers a rich historical experience for visitors. Notably, despite the absence of a website, La Ksiba remains a popular tourist spot and is owned by La Ksiba (Proprietaire).</t>
         </is>
       </c>
     </row>
@@ -11845,9 +11788,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Arc Bou Amoud located at 7VGF+XM7 Arc Bou Amoud, Rue Arc Bou Amoud, Rue de la Regence, Bizerte. 
-This top-rated destination is perfect for Monument lovers. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>The Arc Bou Amoud is a well-known landmark in Bizerte, Tunisia with coordinates (37.2725849, 9.8719093). This impressive monument is located on Rue Arc Bou Amoud, Rue de la Regence and is highly rated by visitors with 4.1 stars based on 9 reviews. Unfortunately, there is no detailed description or information about its history or significance.</t>
         </is>
       </c>
     </row>
@@ -11942,7 +11883,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Bizerte Old Harbor located at 7VGG+863 Bizerte Old Harbor, Bizerte. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Bizerte Old Harbor, located at coordinates (37.2725849, 9.8719093) in Bizerte, Tunisia, is a captivating historical site with a rating of 4.3. It is a popular destination for tourists, offering a glimpse into the city's rich maritime heritage. The harbor is home to a bustling port and provides a scenic backdrop for leisurely walks and exploration.</t>
         </is>
       </c>
     </row>
@@ -12037,8 +11978,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you happen to be exploring Bizerte and find yourself looking for a captivating historical adventure, Fort d'Espagne is an absolute must-visit. Located conveniently at 7VJC+79G Fort d'Espagne, this top-rated site awaits your arrival. 
-As a history buff's haven, Fort d'Espagne offers a captivating journey through time. Step into its ancient walls and immerse yourself in the stories and legends that have unfolded within. With a remarkable rating of 4.7, it's a testament to the exceptional experience that awaits you. Don't miss out on this chance to explore a piece of Bizerte's rich past!</t>
+          <t>Fort d'Espagne is a historical site located in Bizerte, Tunisia at (37.28222, 9.87167). It is a popular tourist attraction with a rating of 4.7/5 and features various categories such as a historical landmark, museum, and tourist attraction.</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12073,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Musee de la marine located at 8VJ7+W8, Bizerte. This top-rated museum is perfect for museum lovers and offers a range of museum exhibits to choose from. With a rating of 4.8, it's a must-visit spot. The coordinates for this place are (37.2725849, 9.8719093). For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+la+marine/data=!4m7!3m6!1s0x12e31d1bbd325733:0x4fe014cf8436ef38!8m2!3d37.3323143!4d9.8633409!16s%2Fg%2F11jyfymkbv!19sChIJM1cyvRsd4xIROO82hM8U4E8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Musеe de la marine** is a highly-rated museum in Bizerte, Tunisia, with a rating of 4.8 out of 5 stars and 5 reviews. It showcases maritime history and exhibits related to the local marine industry. The museum is located at the coordinates 37.2725849, 9.8719093. Unfortunately, its website and owner information are not available.</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12168,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Mosque Labreche located at 7R8V+47P. This top-rated destination is perfect for Musee lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Mosque Labreche is a popular museum located in Bizerte, Tunisia. It is a great place to learn about the history and culture of the city. The museum has a variety of exhibits, including artifacts from the ancient Roman and Byzantine periods. It also has a collection of Islamic art and architecture. The museum is open to the public every day of the week.</t>
         </is>
       </c>
     </row>
@@ -12327,9 +12267,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dom-muzei Anastasii Shirinskoi located at 7V97+3C3 Dom-muzei Anastasii Shirinskoi, Bizerte 7000. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/%D0%94%D0%BE%D0%BC-%D0%BC%D1%83%D0%B7%D0%B5%D0%B9+%D0%90%D0%BD%D0%B0%D1%81%D1%82%D0%B0%D1%81%D0%B8%D0%B8+%D0%A8%D0%B8%D1%80%D0%B8%D0%BD%D1%81%D0%BA%D0%BE%D0%B9/data=!4m7!3m6!1s0x12e31f87a0acb7f1:0x9312a3c6a72efc43!8m2!3d37.2679915!4d9.8634528!16s%2Fg%2F11tgd5kht2!19sChIJ8besoIcf4xIRQ_wup8ajEpM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 180 858.</t>
+          <t>Dom-muzei Anastasii Shirinskoi is a museum located in Bizerte, Tunisia. It is dedicated to the life and work of Anastasia Shirinskaya, a Russian artist who lived in Tunisia from 1922 until her death in 1938. The museum is a popular tourist destination and offers a unique glimpse into the life of one of Tunisia's most celebrated artists. Its exact address is 7V97+3C3 Bizerte 7000.</t>
         </is>
       </c>
     </row>
@@ -12424,7 +12362,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a top-rated historical site, check out Fort d'Espagne located at 7VJC+79G Fort d'Espagne. This popular destination is perfect for history buffs and offers a range of categories to choose from, including museums and tourist attractions. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167.</t>
+          <t>The Fort d'Espagne is a historic site and museum located in Bizerte, Tunisia. It offers a glimpse into the city's rich past, with exhibits that showcase the area's significance over the centuries. Built by the Spanish in the 16th century, the fort stands as a testament to the region's strategic value. With its stunning views of the Mediterranean Sea, the Fort d'Espagne provides visitors with an immersive historical and cultural experience.</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12457,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Fort d'Espagne located at 7VJC+79G Fort d'Espagne, Bizerte. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique, Lieu historique, Musee, and Attraction touristique. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167. For more details, visit their website at or call them at .</t>
+          <t>Nestled in Bizerte, Fort d'Espagne is a captivating historical site with a rating of 4.7, boasting 17 reviews. While the exact location is not specified, this attraction offers a rich blend of historical significance and tourism. Its featured image provides a glimpse of its architectural charm. Categorized primarily as a historical site, it also encompasses a museum and serves as a popular tourist destination.</t>
         </is>
       </c>
     </row>
@@ -12614,7 +12552,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for an enticing spot, explore Bizerte Old Harbor, nestled at 7VGG+863 Bizerte Old Harbor, Bizerte. This top-rated museum boasts a remarkable rating of 4.3, making it a must-visit destination. Dive into the captivating history and heritage of this renowned port, a favorite among tourists. For further information, visit their website or contact them directly.</t>
+          <t>Located in Bizerte, Tunisia at the coordinates (37.2725849, 9.8719093), Bizerte Old Harbor is a popular tourist spot with a rating of 4.3 out of 5 based on 24 reviews. It is a museum categorized as a Musee. The harbor is a great place to see the port and learn about the local culture.</t>
         </is>
       </c>
     </row>
@@ -12709,9 +12647,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Fort d'Espagne located at 7VJC+79G Fort d'Espagne, Bizerte. 
-This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique, Lieu historique, Musee, and Attraction touristique. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167.</t>
+          <t>Fort d'Espagne, a historical site in Bizerte, Tunisia, is a must-visit destination. Located at coordinates (37.28222, 9.87167), the fort offers a glimpse into the region's rich history. With 17 reviews and a rating of 4.7, it's a popular attraction. Its main category is a historical site, and it falls under various subcategories such as historical place, museum, and tourist attraction. Although no description or website is provided, the featured image offers a visual representation of the fort's grandeur.</t>
         </is>
       </c>
     </row>
@@ -12806,7 +12742,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Musee de la marine located at 8VJ7+W8 Musee de la marine, Bizerte. This top-rated destination is perfect for Musee lovers. With a rating of 4.8, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+la+marine/data=!4m7!3m6!1s0x12e31d1bbd325733:0x4fe014cf8436ef38!8m2!3d37.3323143!4d9.8633409!16s%2Fg%2F11jyfymkbv!19sChIJM1cyvRsd4xIROO82hM8U4E8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Musee de la marine is a top-rated museum in Bizerte, Tunisia, with an impressive 4.8-star rating based on 5 reviews. Located at 8VJ7+W8, this museum offers an engaging experience, as highlighted by its featured image and positive reviews. Despite limited information available, it's a popular destination for those interested in historical artifacts and cultural immersion.</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12837,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out El alia located at 7VFG+GVQ El alia, Bizerte. This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.google.com/maps/place/El+alia/data=!4m7!3m6!1s0x12e31f208b16a859:0x15e475bfeeeed5b5!8m2!3d37.2738305!4d9.8772434!16s%2Fg%2F11t_l34q2g!19sChIJWagWiyAf4xIRtdXu7r915BU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the heart of Bizerte (37.1680428, 10.0351974), El alia is a popular bar among locals and offers a wide range of drinks and snacks. It has a cozy and friendly atmosphere and is a great place to relax and socialize. With a rating of 4.7, it is a highly recommended spot for those looking for a good time in Bizerte.</t>
         </is>
       </c>
     </row>
@@ -12996,9 +12932,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a museum to visit, check out Mosque Labreche located at 7R8V+47P Mosque Labreche. 
-This top-rated destination is perfect for museum lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9+Labr%C3%A8che/data=!4m7!3m6!1s0x12e31f1b7f563d57:0x63ba97e8153e366b!8m2!3d37.2653449!4d9.8431894!16s%2Fg%2F11c1s8r65d!19sChIJVz1Wfxsf4xIRazY-FeiXumM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Mosque Labreche is a well-rated museum with 2 reviews, located in Bizerte at coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13031,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Dom-muzei Anastasii Shirinskoi located at 7V97+3C3 Dom-muzei Anastasii Shirinskoi, Bizerte 7000. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at  or call them at 58 180 858.</t>
+          <t>The Dom-muzei Anastasii Shirinskoi is a museum located in Bizerte, Tunisia. It offers a unique glimpse into the life and work of the renowned artist Anastasia Shirinskaya. The museum is conveniently situated at 7V97+3C3 Dom-muzei Anastasii Shirinskoi and is easily accessible.</t>
         </is>
       </c>
     </row>
@@ -13192,7 +13126,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a captivating historical experience, visit Fort d'Espagne, located at 7VJC+79G Fort d'Espagne. This top-rated destination is a must-visit for history buffs, offering a glimpse into the region's rich past. As a Site historique, it showcases a range of categories including Lieu historique, Musee, and Attraction touristique. With an impressive rating of 4.7, it's a testament to its significance. To get there, refer to the GPS coordinates: 37.28222, 9.87167.</t>
+          <t>Fort d'Espagne, a renowned historical site in Bizerte, Tunisia, is located at coordinates (37.28222, 9.87167). This iconic landmark has garnered rave reviews and holds a remarkable 4.7-star rating. While specific details on the site's offerings are not provided in the available information, its categorization as a historical site, museum, and tourist attraction suggests a rich historical and cultural significance. Situated at 7VJC+79G, Fort d'Espagne offers a compelling destination for those seeking to explore the depths of Bizerte's intriguing past.</t>
         </is>
       </c>
     </row>
@@ -13287,7 +13221,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Musee de la marine located at 8VJ7+W8 Musee de la marine, Bizerte. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+la+marine/data=!4m7!3m6!1s0x12e31d1bbd325733:0x4fe014cf8436ef38!8m2!3d37.3323143!4d9.8633409!16s%2Fg%2F11jyfymkbv!19sChIJM1cyvRsd4xIROO82hM8U4E8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Musée de la marine is a museum located in Bizerte, Tunisia. It is dedicated to the maritime history of the region. It is a popular tourist destination and offers visitors a chance to learn about the rich maritime heritage of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13316,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Mosque Labreche located at 7R8V+47P Mosque Labreche, Bizerte. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Mosque Labreche is a religious landmark located in Bizerte, Tunisia. Currently rated 4.0 out of 5 stars, it is a museum classified under the main category of museums.</t>
         </is>
       </c>
     </row>
@@ -13481,7 +13415,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dom-muzei Anastasii Shirinskoi located at 7V97+3C3 Dom-muzei Anastasii Shirinskoi, Bizerte 7000. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 58 180 858.</t>
+          <t>The House-Museum of Anastasia Shirinskaya is a museum located in Bizerte, Tunisia. It is dedicated to the life and work of Anastasia Shirinskaya, a Russian artist who lived in Bizerte from 1925 to 1939. The museum displays a collection of Shirinskaya's paintings, drawings, and sculptures, as well as personal belongings and documents. It is located at 7V97+3C3, Bizerte 7000, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -13576,7 +13510,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>Discover Bizerte Old Harbor, a historical and cultural landmark in the heart of Bizerte. With a rating of 4.3 and 24 reviews, it is a testament to its prominence and popularity. Explore the captivating exhibitions and immerse yourself in the rich history of Bizerte. To get there, head to 7VGG+863 Bizerte Old Harbor, Bizerte and use the coordinates 37.2725849, 9.8719093 in your navigation system.</t>
+          <t>Nestled in the heart of Bizerte, Tunisia, Bizerte Old Harbor beckons visitors with its rich history and captivating ambiance. This museum, once a bustling port, holds within its walls a captivating narrative of the past. Boasting a remarkable rating of 4.3, this site has earned the appreciation of numerous travelers who have marveled at its significant collection. Located at the convenient coordinates (37.2725849, 9.8719093), Bizerte Old Harbor stands ready to welcome you on an unforgettable journey into the past.</t>
         </is>
       </c>
     </row>
@@ -13671,9 +13605,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Fort d'Espagne. 
-This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from including Site historique, Lieu historique, Musee, Attraction touristique. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167. For more details, visit their website at https://www.google.com/maps/place/Fort+d%27Espagne/data=!4m7!3m6!1s0x12e31e450a827723:0x9e802d56fcc8cf39!8m2!3d37.2806849!4d9.8709564!16s%2Fg%2F11c5_zjs64!19sChIJI3eCCkUe4xIROc_I_FYtgJ4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Bizerte, the Fort d'Espagne is a historical landmark that stands proudly, offering a glimpse into the region's rich past. As a significant site and museum, it recounts the area's history, featuring insightful exhibits and capturing the essence of Bizerte's heritage. At the Fort d'Espagne, visitors can immerse themselves in the city's rich cultural tapestry and marvel at the captivating views it offers.</t>
         </is>
       </c>
     </row>
@@ -13768,7 +13700,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Musee de la marine located at 8VJ7+W8 Musee de la marine, Bizerte. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot.</t>
+          <t>Musee de la marine is a museum located in Bizerte, Tunisia, with coordinates (37.2725849, 9.8719093). It offers a unique glimpse into the maritime history of the region. The museum houses a collection of artifacts, including ship models, navigation instruments, and naval uniforms. It also features exhibits on the history of shipbuilding and the role of the navy in Tunisia. The museum is a popular destination for tourists and history buffs alike.</t>
         </is>
       </c>
     </row>
@@ -13863,7 +13795,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Mosque Labreche located at 7R8V+47P Mosque Labreche, Bizerte. This top-rated destination is perfect for Musee lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>The Mosque of Labreche is a historical and cultural landmark located in Bizerte with the exact coordinates of (37.2725849, 9.8719093). Currently rated 4.0 out of 5 based on 2 reviews, the mosque offers a glimpse into the city's rich cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -13960,7 +13892,11 @@
           <t>bizerte</t>
         </is>
       </c>
-      <c r="Y135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>Located in Bizerte, Tunisia, Dom-muzei Anastasii Shirinskoi is a renowned museum dedicated to the life and works of artist Anastasii Shirinskoi. Situated at coordinates (37.275992, 9.8701015), this museum showcases a collection of Shirinskoi's paintings, sculptures, and personal memorabilia. Visitors can explore the artist's creative journey and delve into the cultural heritage of the region.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14053,7 +13989,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a captivating museum experience, be sure to visit Bizerte Old Harbor at 7VGG+863 Bizerte Old Harbor, Bizerte. This top-rated museum boasts a superb rating of 4.3 and is a must-visit spot. It's open during regular hours, but closed on specific days that aren't mentioned. To get there, follow the GPS coordinates of (37.2725849, 9.8719093). For more details, visit their website or give them a call.</t>
+          <t>In the heart of Bizerte, Tunisia, lies the Bizerte Old Harbor, offering a glimpse into the city's rich maritime history. Located at coordinates (37.2725849, 9.8719093), this harbor is a popular tourist destination, welcoming visitors with its picturesque setting and historical charm.</t>
         </is>
       </c>
     </row>
@@ -14148,7 +14084,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Fort d'Espagne located at 7VJC+79G Fort d'Espagne, Bizerte. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.28222, 9.87167. For more details, visit their website at https://www.google.com/maps/place/Fort+d%27Espagne/data=!4m7!3m6!1s0x12e31e450a827723:0x9e802d56fcc8cf39!8m2!3d37.2806849!4d9.8709564!16s%2Fg%2F11c5_zjs64!19sChIJI3eCCkUe4xIROc_I_FYtgJ4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Fort d'Espagne, located in Bizerte, Tunisia (37.28222, 9.87167), is an unmissable historical site with a rating of 4.7 based on 17 reviews. As a renowned landmark, the fort offers a captivating glimpse into the region's rich history and cultural heritage, attracting tourists from around the globe.</t>
         </is>
       </c>
     </row>
@@ -14243,9 +14179,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Musee de la marine located at 8VJ7+W8 Musee de la marine, Bizerte. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+la+marine/data=!4m7!3m6!1s0x12e31d1bbd325733:0x4fe014cf8436ef38!8m2!3d37.3323143!4d9.8633409!16s%2Fg%2F11jyfymkbv!19sChIJM1cyvRsd4xIROO82hM8U4E8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Musée de la Marine in Bizerte, Tunisia, is a captivating maritime museum located at coordinates (37.2725849, 9.8719093). With a rich history reflected in its 4.8-star rating, it offers visitors a captivating glimpse into the maritime heritage of Bizerte.</t>
         </is>
       </c>
     </row>
@@ -14340,7 +14274,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Mosque Labreche located at 7R8V+47P Mosque Labreche, Bizerte. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Mosque Labreche is a museum and a notable religious site in Bizerte, Tunisia. Located at (37.2725849, 9.8719093), it offers historical and cultural insights. The museum showcases local history and exhibits.</t>
         </is>
       </c>
     </row>
@@ -14439,7 +14373,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Dom-muzei Anastasii Shirinskoi located at 7V97+3C3 Dom-muzei Anastasii Shirinskoi, Bizerte 7000. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/%D0%94%D0%BE%D0%BC-%D0%BC%D1%83%D0%B7%D0%B5%D0%B9+%D0%90%D0%BD%D0%B0%D1%81%D1%82%D0%B0%D1%81%D0%B8%D0%B8+%D0%A8%D0%B8%D1%80%D0%B8%D0%BD%D1%81%D0%BA%D0%BE%D0%B9/data=!4m7!3m6!1s0x12e31f87a0acb7f1:0x9312a3c6a72efc43!8m2!3d37.2679915!4d9.8634528!16s%2Fg%2F11tgd5kht2!19sChIJ8besoIcf4xIRQ_wup8ajEpM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 180 858.</t>
+          <t>Dom-muzei Anastasii Shirinskoi is a museum located in Bizerte, Tunisia. It is dedicated to the life and work of Anastasii Shirinskoi, a Russian artist who lived and worked in Bizerte. The museum houses a collection of Shirinskoi's paintings, drawings, and sculptures, as well as personal items and documents. It is located at 7V97+3C3 Dom-muzei Anastasii Shirinskoi, Bizerte 7000, and its coordinates are (37.275992, 9.8701015).</t>
         </is>
       </c>
     </row>
@@ -14538,9 +14472,10 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a fun place to visit, check out Vieux Port De Bizerte located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de, Bizerte. 
-This top-rated destination is perfect for boat lovers and offers a range of activities to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Vieux+Port+De+Bizerte/data=!4m7!3m6!1s0x12e31e48ce66abbf:0xf8f36f678d51cc4d!8m2!3d37.2771396!4d9.8746004!16s%2Fg%2F11c56bjfx5!19sChIJv6tmzkge4xIRTcxRjWdv8_g?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Vieux Port De Bizerte, located at the coordinates (37.2725849, 9.8719093) in Bizerte, is a charming and lively port offering a unique blend of historical and modern experiences. 
+With a rating of 4.5 stars from 551 reviews, it is a popular destination for both locals and tourists alike. Open 24 hours a day, the port offers a vibrant atmosphere, with colorful boats lining the quays and the sound of laughter and music filling the air. 
+Visitors can enjoy a variety of activities here, from dining at one of the many cafes and restaurants to taking a leisurely stroll along the promenade. The port is also home to several historical landmarks, including the Passerelle du Marsa de Bizerte, a pedestrian bridge that connects the old city to the port. 
+Overall, the Vieux Port De Bizerte is a must-visit destination for anyone looking to experience the rich and vibrant culture of Bizerte.</t>
         </is>
       </c>
     </row>
@@ -14647,9 +14582,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Parc Aladin ( manege sidi selam ) located at Manege sidi selem, Bizerte 7000. 
-This top-rated destination is perfect for Parc d'attractions lovers and offers a range of categories to choose from, including Parc d'attractions, Salle de jeux pour enfants, Pizzeria, Salon de the, Attraction touristique. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: 13:00-18:00, 20:00-00:00. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.facebook.com/Parc.Aladin.bizerte/ or call them at 53 519 315.</t>
+          <t>Parc Aladin, situated at the coordinates (37.275992, 9.8701015) in Bizerte, Tunisia, is an amusement park that caters to families and children. The park boasts a range of attractions, including a manege, arcade games, and delectable pizzas. With its convenient location and affordable prices, Parc Aladin is the perfect destination for a day of fun and entertainment.</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14677,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Vieux Port located at Vieux Port, Bizerte. This top-rated destination is perfect for Point d'eau lovers and offers a range of Point d'eau to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.27842, 9.87795.</t>
+          <t>Vieux Port is a popular spot in Bizerte, Tunisia, renowned for its breathtaking waterfront views. Located at the heart of the city (37.27842, 9.87795), it boasts a vibrant atmosphere with charming cafes lining the promenade, inviting visitors to soak in the local culture while enjoying a leisurely drink. Despite not having an official website or phone number, Vieux Port's allure lies in its picturesque setting and the abundance of cafes offering delectable cuisine and waterfront dining experiences.</t>
         </is>
       </c>
     </row>
@@ -14843,9 +14776,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Musee oceanographique located at 7VHG+7PJ Musee oceanographique, Bizerte. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: 09:30-12:30, 14:30-18:00, but closed on lundi. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Located in Bizerte at (37.2725849, 9.8719093), Musée océanographique is a popular tourist attraction. Open from 9:30 AM to 12:30 PM and 2:30 PM to 6:00 PM on weekdays (closed on Mondays), it has received 91 reviews and has a rating of 3.7. Visitors often mention the aquarium and various animals in their reviews.</t>
         </is>
       </c>
     </row>
@@ -14940,9 +14871,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Medina de Bizerte located at 7VHG+H68 Medina de Bizerte, Bizerte.
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.4, it's a must-visit spot. For more details, visit their website at  or call them at</t>
+          <t>Medina de Bizerte is a historic site located in Bizerte, Tunisia. It is known for its narrow streets and its many shops and restaurants. The Medina is a popular tourist destination and it offers a variety of activities for visitors. The Medina is located in the heart of Bizerte and it is easily accessible by public transportation. The climate in Bizerte is mild and sunny, with average temperatures ranging from 15°C to 25°C.</t>
         </is>
       </c>
     </row>
@@ -15037,9 +14966,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a beautiful lake to visit, check out Lac de Bizerte located at Lac de Bizerte. 
-This top-rated destination is perfect for Lac lovers and offers a range of activities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.18332, 9.86671. For more details, visit their website at https://www.google.com/maps/place/Lac+de+Bizerte/data=!4m7!3m6!1s0x12e318a934436847:0x47f9441f158a5e63!8m2!3d37.1946281!4d9.8683073!16s%2Fg%2F121qg2wc!19sChIJR2hDNKkY4xIRY16KFR9E-Uc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lac de Bizerte, located in the city of Bizerte, Tunisia (coordinates: 37.18332, 9.86671), is a stunning lake offering breathtaking natural beauty. With a rating of 4.4 based on 16 reviews, this popular destination attracts visitors with its tranquility and picturesque landscapes. While further details about specific offerings and amenities are not provided, it's clear that Lac de Bizerte is a must-visit for nature enthusiasts and those seeking a peaceful retreat.</t>
         </is>
       </c>
     </row>
@@ -15134,7 +15061,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cap Bizerte located at Cap Bizerte. This top-rated destination is perfect for Land mass lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 37.33425, 9.86311. For more details, visit their website at nan or call them at nan.</t>
+          <t>Cap Bizerte, located at the northernmost point of Tunisia, is a breathtaking landmass with panoramic views of the Mediterranean Sea. Situated at coordinates (37.33425, 9.86311), Cap Bizerte boasts a 4.1-star rating based on 16 reviews. While it lacks an official website, Cap Bizerte's stunning scenery and natural beauty make it a must-visit destination for nature enthusiasts and travelers seeking tranquility.</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15156,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a scenic spot, head to Canal de bizerte located at Canal de bizerte. This Point d'eau is a must-visit spot, with a rating of 4.4. It's open during the workday, but closed on undisclosed days.</t>
+          <t>The Canal de bizerte is a body of water located in Bizerte, Tunisia. It is a popular spot for locals and tourists alike, offering stunning views of the city and the surrounding area. The Canal de bizerte is also a great place to relax and take a break from the hustle and bustle of everyday life.</t>
         </is>
       </c>
     </row>
@@ -15324,9 +15251,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out La Ksiba located at 7VHG+9R4 La Ksiba, Blvd Habib Bougatfa, Bizerte. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 37.277402345635, 9.877438516257. For more details, visit their website at find more details on the provided link https://www.google.com/maps/place/La+Ksiba/data=!4m7!3m6!1s0x12e31f6220e5df89:0xf59bfe55d50d26d6!8m2!3d37.2783948!4d9.8770838!16s%2Fg%2F11qq3drfct!19sChIJid_lIGIf4xIR1iYN1VX-m_U?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>La Ksiba is a historical site located in Bizerte, Tunisia. It is rated 4.2 out of 5 stars on Google and has 12 reviews. La Ksiba offers a unique glimpse into the region's rich history and is a popular destination for tourists and locals alike. Its coordinates are (37.277402345635, 9.877438516257).</t>
         </is>
       </c>
     </row>
@@ -15421,7 +15346,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for Lac related fun, check out Lac de Bizerte located at Lac de Bizerte. This top-rated Lac destination is perfect for Lac lovers with a 4.5 rating. The GPS coordinates to get there are (37.18332, 9.86671). For more details, visit their website.</t>
+          <t>Lac de Bizerte is a lake located in Bizerte, Tunisia. It is a popular tourist destination, offering stunning views of the surrounding countryside. With its convenient location at 37.18332 latitude and 9.86671 longitude, the lake is easily accessible to both locals and tourists alike. While additional information like its description, reviews, and amenities are currently unavailable, Lac de Bizerte remains a beautiful spot worth exploring.</t>
         </is>
       </c>
     </row>
@@ -15512,7 +15437,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a nice Source d'eau to visit, check out Ain Meriem located at Ain Meriem, Bizerte. This top-rated destination is a must-visit spot for Source d'eau lovers, and has a rating of 4.1. To get there, use these GPS coordinates: 37.287297502789, 9.869491371769.</t>
+          <t>Ain Meriem is a popular natural spring located in Bizerte. Its refreshing water and proximity to the city make it a great destination for relaxation and leisure. The spring is easily accessible by road and offers a peaceful ambiance amidst nature.</t>
         </is>
       </c>
     </row>
@@ -15607,9 +15532,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Quai Nord du Canal de Bizerte located at Quai Nord du Canal de Bizerte, Bizerte. 
-This top-rated destination is perfect for Land mass lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.27275, 9.87588. For more details, visit their website at https://www.google.com/maps/place/Quai+Nord+du+Canal+de+Bizerte/data=!4m7!3m6!1s0x12e31e52b6a2b2f7:0x7914d05d6ff9f644!8m2!3d37.2690988!4d9.8731928!16s%2Fg%2F1tg8fm_4!19sChIJ97KitlIe4xIRRPb5b13QFHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Quai Nord du Canal de Bizerte is a land mass located in Bizerte, Tunisia, at the coordinates (37.27275, 9.87588). It has a 4.7 rating on Google and has 6 reviews. The Quai Nord du Canal de Bizerte is a popular destination for tourists and locals alike. It offers stunning views of the Bizerte Canal and is a great place to relax and take a stroll.</t>
         </is>
       </c>
     </row>
@@ -15704,7 +15627,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Vieux Port located at Vieux Port, Bizerte. This top-rated destination is perfect for Port lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.27842, 9.87795. For more details, visit their website at https://www.google.com/maps/place/Vieux+Port/data=!4m7!3m6!1s0x12e31e4874ae0693:0x615181066835c0c!8m2!3d37.2783333!4d9.8780556!16s%2Fg%2F11g_qwrf7!19sChIJkwaudEge4xIRDFyDZhAYFQY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Vieux Port is a port located in Bizerte, Tunisia. It is a popular tourist destination and offers a variety of activities, including swimming, boating, and fishing. The port is also home to a number of restaurants and cafes. It is located at coordinates (37.27842, 9.87795).</t>
         </is>
       </c>
     </row>
@@ -15795,8 +15718,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in bizerte, be sure to check out Base Marine Militaire de Bizerte located at Base Marine Militaire de Bizerte, it's a highly-rated spot with rating of 3.0 that you just can't miss. 
-This land mass offers a must-visit experience for land mass lovers.</t>
+          <t>The Base Marine Militaire de Bizerte is a military base located in the city of Bizerte, Tunisia. It is situated at coordinates (49.268300643966, 4.053235647326) and offers military-related services.</t>
         </is>
       </c>
     </row>
@@ -15891,7 +15813,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Lac de Bizerte located at Lac de Bizerte. This top-rated destination is perfect for Lac lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.18332, 9.86671.</t>
+          <t>Lac de Bizerte is a stunning lake located in Bizerte, Tunisia. With a high rating of 5.0, it is a popular destination for locals and tourists alike. The lake offers a variety of activities, such as boating, fishing, and swimming. It is also a great place to relax and enjoy the beautiful scenery. Lac de Bizerte is situated at coordinates (37.18332, 9.86671), making it easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -15986,7 +15908,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a scenic and serene place to enjoy, check out Baie de Bizerte located at Baie de Bizerte. This top-rated destination is perfect for Point d'eau lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.28333, 9.96667.</t>
+          <t>Baie de Bizerte is a stunning body of water located in Bizerte, Tunisia. It offers a variety of activities for visitors, including swimming, fishing, and boating. The bay is also home to a number of historical sites, including the ancient city of Hippo Regius. Baie de Bizerte is situated at the coordinates (37.28333, 9.96667).</t>
         </is>
       </c>
     </row>
@@ -16077,9 +15999,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a port to visit, check out Marsa de Bizerte located at Marsa de Bizerte, Bizerte. 
-This top-rated destination is perfect for port lovers and offers a range of port services to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.27442, 9.87391. For more details, visit their website at https://www.google.com/maps/place/Marsa+de+Bizerte/data=!4m7!3m6!1s0x12e31e48f3b45cb1:0xba26655bd7de7786!8m2!3d37.277122!4d9.8751587!16s%2Fg%2F1hc1tlgth!19sChIJsVy080ge4xIRhnfe11tlJro?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Marsa de Bizerte is a port located in Bizerte, Tunisia. It is known for its historical significance as a naval base and its strategic location on the Mediterranean Sea. The port offers a variety of services, including cargo handling, ship repair, and passenger transportation. It is a vital economic hub for the region and a popular destination for tourists. The port is situated at the coordinates (37.27442, 9.87391) and has a 5.0 rating based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -16174,7 +16094,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a scenic spot, check out Lac de Bizerte located at Lac de Bizerte. This top-rated destination is perfect for Lac lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.18332, 9.86671.</t>
+          <t>Located at coordinates (37.18332, 9.86671), Lac de Bizerte is a picturesque lake in the city of Bizerte. This natural attraction boasts a serene atmosphere, making it an ideal spot for relaxation and leisure. Visitors can enjoy the stunning views of the lake's crystal-clear waters and lush surroundings, offering a tranquil escape from the hustle and bustle of urban life.</t>
         </is>
       </c>
     </row>
@@ -16265,7 +16185,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Ain Meriem located at Ain Meriem, Bizerte. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 37.287297502789, 9.869491371769. For more details, visit their website at https://www.google.com/maps/place/Ain+Meriem/data=!4m7!3m6!1s0x12e31e88897f06d9:0xcf693bb57e134bb2!8m2!3d37.3008333!4d9.8541667!16s%2Fg%2F11bymt439y!19sChIJ2QZ_iYge4xIRsksTfrU7ac8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ain Meriem is a water source located in Bizerte, Tunisia, with coordinates (37.287297502789, 9.869491371769). It has received a 4.1-star rating from 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -16364,7 +16284,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Foret du Rimel located at 6XHJ+323 Foret du Rimel, Autoroute Tunis-Bizerte, Menzel Jemil. This top-rated destination is perfect for Foret nationale lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/For%C3%AAt+du+Rimel/data=!4m7!3m6!1s0x12e2e09912d97c9f:0x4a896b8217d27382!8m2!3d37.22763!4d9.9800438!16s%2Fg%2F1tgdwjwn!19sChIJn3zZEpng4hIRgnPSF4JriUo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 460 224.</t>
+          <t>Foret du Rimel is a national forest located in Menzel Jemil, with coordinates 37.2291348, 9.9224329. It's a popular tourist attraction with a 4.4-star rating, known for its beautiful beach, camping facilities, and opportunities for sports activities.</t>
         </is>
       </c>
     </row>
@@ -16455,9 +16375,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Ain Meriem located at Ain Meriem, Bizerte.
-This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from.
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.287297502789, 9.869491371769. For more details, visit their website at  or call them at .</t>
+          <t>Ain Meriem is a water source located at latitude 37.287297502789 and longitude 9.869491371769 in Ain Meriem, Bizerte. It has 4.1 rating on google with 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -16556,7 +16474,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Disco nirvana located at 8V38+7PC Disco nirvana. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 00:00-05:00, but closed on Monday. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more information, visit Disco nirvana (proprietaire) at https://www.google.com/maps/place/Disco+nirvana/data=!4m7!3m6!1s0x12e31f4b751e51b3:0x53fb21ee2d82cb38!8m2!3d37.3026553!4d9.8676129!16s%2Fg%2F11krh34syq!19sChIJs1EedUsf4xIROMuCLe4h-1M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 177 607.</t>
+          <t>Disco nirvana, located in Bizerte at the coordinates (37.2725849, 9.8719093), is a discotheque that offers a lively nightlife experience.</t>
         </is>
       </c>
     </row>
@@ -16659,8 +16577,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a top-rated bar, check out Hanout El Gett located at 7V94+VQC Hanout El Gett, Unnamed Road. 
-This bar is perfect for bar lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, every day of the week. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Hanout+El+Gett/data=!4m7!3m6!1s0x12e31f567279ffdd:0xd8bf12973fedaa7c!8m2!3d37.2696762!4d9.8568932!16s%2Fg%2F11fd50bxb0!19sChIJ3f95clYf4xIRfKrtP5cSv9g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 978 596.</t>
+          <t>Hanout El Gett is a 5 stars bar located in Bizerte, Tunisia. Its coordinates are longitude 9.8719093 and latitude 37.2725849. It is also reachable through the phone number 52 978 596.</t>
         </is>
       </c>
     </row>
@@ -16759,10 +16676,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and searching for a fantastic night out, head to Disco Nirvana at 8V38+7PC, Bizerte. 
-Highly rated with a score of 5.0, this top-rated discotheque is a must-visit destination for dance enthusiasts. 
-Operating from 00:00-05:00 every day except Mondays, Disco Nirvana promises an electrifying experience. 
-For more information, visit their website or dial 98 177 607.</t>
+          <t>Disco Nirvana, a vibrant discotheque located in Bizerte, invites you to dance the night away with its lively atmosphere and captivating rhythms. Situated at coordinates (37.2725849, 9.8719093) in the heart of the city, it offers an unforgettable party experience until the early hours of the morning (00:00-05:00). With a 5-star rating and rave reviews, Disco Nirvana is the perfect destination for a night of pure entertainment.</t>
         </is>
       </c>
     </row>
@@ -16861,7 +16775,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Disco Nirvana located at 8V38+7PC, Bizerte. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 00:00-05:00, but closed on Monday. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 98 177 607.</t>
+          <t>Disco Nirvana, located in Bizerte at the coordinates (37.2725849, 9.8719093), is a renowned discotheque with a rating of 5.0 stars. It operates from 00:00 to 05:00, offering a vibrant nightlife experience alongside its primary category of discotheque. The establishment is closed on Mondays, and its phone number is 98 177 607, providing a means of contact for reservations or inquiries.</t>
         </is>
       </c>
     </row>
@@ -16968,7 +16882,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a delightful dining experience, check out Restaurant Le Sport Nautique located at Quai Tarak Ibn Ziad, Bizerte 7000. This charming restaurant offers a delectable selection of dishes, perfect for those who love Restaurant. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-15:00, 19:00-23:00, but closed on . To get there, use these GPS coordinates: 37.2724144, 9.8793804. For more details, visit their website at https://www.facebook.com/pages/Restaurant-Le-Sport-Nautique/139232646147524 or call them at 72 432 262.</t>
+          <t>Located in Bizerte, Tunisia, Restaurant Le Sport Nautique offers a delectable dining experience. With 4.0 stars based on 286 reviews, guests rave about the seaside views, friendly servers, and exceptional seafood dishes. Open from 12 PM to 3 PM and 7 PM to 11 PM daily, the restaurant features an array of entrees and desserts, ensuring a memorable meal in a charming setting.</t>
         </is>
       </c>
     </row>
@@ -17075,7 +16989,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, check out Bedouin bizerte at Bedouin bizerte, Bizerte. This top-rated restaurant is perfect for food lovers and offers a range of Restaurant, Patisserie options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-02:00, but closed on . To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/Cafe.Le.Bedouin/ or call them at 53 505 050.</t>
+          <t>Bedouin bizerte is located in Bizerte, Tunisia and has an average rating of 4.2. It is a restaurant that offers a variety of dishes, including brunch and desserts. The restaurant is open from 6am to 2am and is closed on Fridays. The phone number is 53 505 050.</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17092,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Restaurant EL KSIBA located at Vieux port la Ksiba, Bizerte. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:30, but closed on lundi. To get there, use these GPS coordinates: 37.27713, 9.87574. For more details, visit their website at  or call them at 54 209 093.</t>
+          <t>Restaurant EL KSIBA is a highly-rated restaurant located in Bizerte, Tunisia. With a focus on seafood, it offers a wide range of dishes including soups, entrees, desserts, and more. The restaurant has a 4.0 rating based on 144 reviews, and is located at Vieux port la Ksiba.</t>
         </is>
       </c>
     </row>
@@ -17285,7 +17199,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Restaurant sicilien, check out Le Grand Bleu Da Ciccio located at rue Garibaldi. This must-visit spot offers a range of categories to choose from, including Restaurant sicilien and Restaurant italien. With a rating of 4.0, it's a popular destination for locals and tourists alike. It's open during these hours: 12:00-22:00, but closed on none. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/LeGrandBleuDaCiccio or call them at 92 087 798.</t>
+          <t>Le Grand Bleu Da Ciccio, a Sicilian restaurant located at rue Garibaldi, Bizerte, offers a delightful dining experience. With a 4.0 rating and over 140 reviews, it serves delicious Italian cuisine, including pasta, seafood, and the traditional Sicilian dessert, cannoli. The restaurant's geolocation is (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -17388,7 +17302,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a great pizza place, check out Di Napoli Corniche located at Rue de Corniche, Bizerte 7000. This top-rated destination is a must-visit spot for pizza lovers with a rating of 4.0. It's open daily from 11:00-01:00. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 20 020 242.</t>
+          <t>Di Napoli Corniche is a renowned pizzeria located in Bizerte, Tunisia. It offers a delicious and authentic range of pizzas, prepared with fresh ingredients and traditional techniques. The restaurant is conveniently located on Rue de Corniche and boasts a 4.0 rating based on 121 reviews. Its hours of operation are from 11:00 AM to 1:00 AM, and it is a popular spot for locals and tourists alike looking for a satisfying meal.</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17409,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out HIPPO LAND located at HIPPO LAND, Boulevard Habib Bougatfa,, Bizerte. This top-rated destination is perfect for Centre de loisirs lovers and offers a range of categories to choose from, including Centre de loisirs and Restaurant. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 37.277402345635, 9.877438516257. For more details, visit their website at https://www.facebook.com/HIPPOLAND.BIZERTE/ or call them at 97 716 000.</t>
+          <t>HIPPO LAND is a leisure center located in Bizerte, Tunisia offering a wide range of activities for families. It features a variety of indoor and outdoor play areas for children, as well as a restaurant serving a selection of dishes. The center is highly rated by visitors, with an average score of 4.3 out of 5 based on 74 reviews. It is easily accessible and offers convenient opening hours, making it a popular destination for family outings.</t>
         </is>
       </c>
     </row>
@@ -17594,7 +17508,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to dine, check out Mohamed el Hadi Lablabi located at 7VF9+QC2 Mohamed el Hadi Lablabi, Bizerte jardin Bouguatfa, Bizerte. This top-rated destination is perfect for Restaurant enthusiasts and offers a range of Restaurant options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Mohamed+el+Hadi+Lablabi/data=!4m7!3m6!1s0x12e31e4e01b63845:0x29ebf6fe5d57841!8m2!3d37.2743826!4d9.8685165!16s%2Fg%2F1wzqw6xp!19sChIJRTi2AU4e4xIRQXjV5W-_ngI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Mohamed el Hadi Lablabi is a restaurant located in Bizerte, Tunisia (37.2725849, 9.8719093). It is famous for its sandwiches, with over 11 reviews mentioning them. The restaurant is open from 9 am to midnight and has an average rating of 4.3 stars.</t>
         </is>
       </c>
     </row>
@@ -17697,7 +17611,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to eat, check out Cabana Restaurant located at 8V28+V9F Cabana Restaurant, North, Bizerte. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:30-02:00, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their link at https://www.google.com/maps/place/Cabana+Restaurant/data=!4m7!3m6!1s0x12e31e7add876d85:0x546532dc4a69a384!8m2!3d37.3021889!4d9.8659212!16s%2Fg%2F11f1k4xz1n!19sChIJhW2H3Xoe4xIRhKNpStwyZVQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 839 177.</t>
+          <t>Cabana Restaurant is located in Bizerte at the coordinates (37.2725849, 9.8719093). With a rating of 4.0 out of 5, it offers a variety of dishes and is open for business from 09:30-02:00.</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17710,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a great restaurant, check out Lablebi JABERI(Retila) located at 7VJ5+844 Lablebi JABERI(Retila), Avenue 14 Janvier. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.270866395552, 9.85679796161.</t>
+          <t>Lablebi JABERI(Retila) is a restaurant located in Bizerte, Tunisia. It specializes in traditional Tunisian dishes, including lablabi and sandwiches. The restaurant is known for its friendly service and delicious food. It is located at 7VJ5+844 Lablebi JABERI(Retila), Avenue 14 Janvier, Bizerte, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -17903,7 +17817,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a place to eat, check out Restaurant Joba located at 9 rue du premier mai. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/Restaurant.Joba or call them at 96 156 730.</t>
+          <t>Restaurant Joba, located in Bizerte, Tunisia, is renowned for its exquisite cuisine and exceptional service. This well-rated establishment (4.2/5 from 52 reviews) offers a wide selection of dishes to cater to various tastes. Its menu features mouthwatering dishes that are generous in portion, ensuring satisfaction for every diner. The restaurant is open 24/7, providing flexibility for both early birds and night owls. Located conveniently at 9 rue du premier mai, Restaurant Joba boasts a convenient location that makes it easily accessible to both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -18010,7 +17924,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, check out Resto Sahib located at 7VH9+3W5 Resto Sahib, ex blvd Saadi Carnot, Bizerte. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100064033030781 or call them at 23 448 443.</t>
+          <t>Resto Sahib, located in Bizerte (37.2725849, 9.8719093), is a restaurant offering a delightful dining experience. The restaurant has received positive feedback from its customers, boasting a 4.1-star rating based on 41 reviews. It has an operating schedule from 08:00-00:00, offering extended hours for convenience. Resto Sahib's menu and ambiance have yet to be specified, but the positive reviews suggest a satisfying culinary journey.</t>
         </is>
       </c>
     </row>
@@ -18113,9 +18027,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great meal, check out Mr Tacos located at 7VX8+HGX Mr Tacos, Unnamed Road, Bizerte. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at  or call them at 58 774 026.</t>
+          <t>Mr Tacos is a restaurant located in Bizerte, Tunisia. It is open from 12:00 to 00:00 every day except Mondays. The restaurant offers tacos and other Mexican dishes. It has a rating of 4.3 out of 5 stars and has received 25 reviews. The restaurant's featured image shows a colorful plate of tacos.</t>
         </is>
       </c>
     </row>
@@ -18218,7 +18130,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Pizaria Pasta Posta located at 35 Av. D'Algerie, Bizerte 7000. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 37.273240182579, 9.873668810438. For more details, visit their website at https://www.google.com/maps/place/Pizaria+Pasta+Posta/data=!4m7!3m6!1s0x12e31e4c604af661:0x3d571357cd91af4c!8m2!3d37.2724606!4d9.8733186!16s%2Fg%2F11btt8b6kf!19sChIJYfZKYEwe4xIRTK-RzVcTVz0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 804 015.</t>
+          <t>Pizaria Pasta Posta is a pizzeria located in Bizerte, Tunisia. It's owned by Pizaria Pasta Posta (proprietaire) and it's located at the address 35 Av. D'Algerie. The website of the pizzeria is not known. Based on 16 reviews, it has an average rating of 4.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -18321,7 +18233,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Restaurant, check out Yummy located at 8V38+3FP Yummy, Bizerte. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100077471852243 or call them at 25 498 106.</t>
+          <t>Yummy is a restaurant located in Bizerte, Tunisia. It has a rating of 4.1 and offers a wide variety of dishes. The restaurant is open every day of the week and is located at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -18424,7 +18336,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a great place to eat, check out Dream Food located at 8V38+3FW Dream Food, corniche, Bizerte. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 11:30-01:00, but closed on Tuesday. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, call them at 25 498 106.</t>
+          <t>Dream Food is a highly-rated restaurant in the city of Bizerte, Tunisia. It serves delicious food in a cozy atmosphere and is particularly popular among locals and tourists alike. The restaurant is located at 8V38+3FW Dream Food, corniche, Bizerte (coordinates: 37.2725849, 9.8719093). It is open from 11:30 am to 1:00 am, closed on Tuesdays, and can be contacted at 25 498 106.</t>
         </is>
       </c>
     </row>
@@ -18527,9 +18439,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, check out Emnara located at 7VFF+4MQ Emnara, rue Constantinople, Bizerte. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 56 177 967.</t>
+          <t>Emnara is a restaurant located in Bizerte, Tunisia (37.2725849, 9.8719093). It has a rating of 4.2 out of 5 based on 10 reviews. Emnara offers a variety of dishes and is open from 10:00 AM to 12:00 AM daily.</t>
         </is>
       </c>
     </row>
@@ -18632,7 +18542,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, check out Restaurant Khemaies ternane located at Vieux port Bizerte Bizerte, 7000. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on mar. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website or call them at 22 550 616.</t>
+          <t>Restaurant Khemaies ternane is a well-rated restaurant located in the heart of Bizerte, Tunisia. It offers a wide range of dishes, including traditional Tunisian cuisine and international fare. The restaurant is known for its friendly staff and its relaxed atmosphere. It is a great place to enjoy a meal with friends or family. It is situated in Bizerte (coordinates: 37.275992, 9.8701015) and welcomes you every day from 09:00 to 22:00 except on Tuesdays.</t>
         </is>
       </c>
     </row>
@@ -18731,7 +18641,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, make sure to add Resto Hyppo to your list. Located at 7VJG+HQJ Resto Hyppo, Blvd Habib Bougatfa, Bizerte 7000, this restaurant is the perfect spot for food lovers. It's a must-visit spot with a rating of 4.4 and is open during these hours: 09:00-21:30. To get there, use these GPS coordinates: 37.273857059952, 9.878366891873.</t>
+          <t>Resto Hyppo is a restaurant located in Bizerte, Tunisia at coordinates (37.273857059952, 9.878366891873). The restaurant has a rating of 4.4 out of 5 based on 8 reviews and is open from 09:00 to 21:30 every day.</t>
         </is>
       </c>
     </row>
@@ -18834,9 +18744,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great Italian meal, check out Bella Ciao Bizerte located at 7VW8+JG2 Bella Ciao Bizerte, Bizerte. 
-This top-rated restaurant is perfect for Italian food lovers and offers a range of dishes to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-02:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, call them at 98 136 542.</t>
+          <t>Bella Ciao Bizerte is an Italian restaurant located in Bizerte, Tunisia. It has a rating of 4.1 stars out of 8 reviews on Google. The restaurant is known for its Italian cuisine and offers a wide variety of dishes. It is open from 10am to 2am, 7 days a week. The restaurant is located at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -18935,7 +18843,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Grillez vos poissons located at 7VGG+C2F Bizerte. This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 50 375 241.</t>
+          <t>Grillez vos poissons is a seafood restaurant located in Bizerte, Tunisia, with a 4.7 rating out of 5 based on 7 reviews. The restaurant is known for its fresh, high-quality grilled fish and seafood. It is conveniently located at 7VGG+C2F and can be contacted at 50 375 241 for reservations or inquiries.</t>
         </is>
       </c>
     </row>
@@ -19038,9 +18946,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Baboucha "Coqui" located at Baboucha "Coqui", vieux port a cote du cafe pecha bizerte Bizerte, 7000.
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from.
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 16:00-01:00, To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/Baboucha+%22Coqui%22/data=!4m7!3m6!1s0x12e31f091cf88b71:0x3c8d5820e84ae6f3!8m2!3d37.2763417!4d9.8747385!16s%2Fg%2F11hfjrrrjv!19sChIJcYv4HAkf4xIR8-ZK6CBYjTw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 063 542.</t>
+          <t>Baboucha "Coqui" is a restaurant located in Bizerte, Tunisia, at coordinates (37.275992, 9.8701015). It is open from 4PM to 1AM and has a rating of 4.8 stars based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -19147,7 +19053,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Bibo Food located at 7VV9+9FM Bibo Food, Route de la Corniche, Bizerte 7002. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 37.2768833, 9.8641773. For more details, visit their website at https://www.facebook.com/BIBO-FOOD-387679431790247/ or call them at 54 260 426.</t>
+          <t>Bibo Food is a restaurant in Bizerte, Tunisia, located at coordinates (37.2768833, 9.8641773). It offers a wide range of food options and has received positive reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -19250,10 +19156,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Dibarka italian located at 6 rue Ibn Khaldoun. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on Tuesday. 
-To get there, use these GPS coordinates: 37.271829984511, 9.870483945359. For more details, visit their website at https://www.google.com/maps/place/Dibarka+italian/data=!4m7!3m6!1s0x12e31fddf016e8cf:0x9c9b69ae654f9fad!8m2!3d37.2703308!4d9.8719411!16s%2Fg%2F11p60hgvtm!19sChIJz-gW8N0f4xIRrZ9PZa5pm5w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 493 836.</t>
+          <t>Dibarka Italian is an Italian restaurant located in Bizerte, Tunisia. It has 3 reviews, a rating of 4.3, and offers Italian cuisine. The restaurant is open 24 hours a day, except on Tuesdays. It is located at 6 Rue Ibn Khaldoun, Bizerte and can be contacted via phone at 23 493 836.</t>
         </is>
       </c>
     </row>
@@ -19348,7 +19251,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Restaurant, check out Machwa banzartia located at 7VGF+9RW Machwa banzartia, rue de la grille, Bizerte. This popular destination has a rating of 4.5 and offers a range of Restaurant options to choose from. To get there, use these GPS coordinates: 37.274889846689, 9.874075070294. For more details, visit their website at https://www.google.com/maps/place/Machwa+banzartia/data=!4m7!3m6!1s0x12e31f94180998f7:0x69f475181e8a8af1!8m2!3d37.2759871!4d9.874579!16s%2Fg%2F11fr7w6443!19sChIJ95gJGJQf4xIR8YqKHhh19Gk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Machwa banzartia is a restaurant located in bizerte (coordinates: (37.274889846689, 9.874075070294)). It has a rating of 4.5 out of 5 based on 2 reviews and is owned by Machwa banzartia (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -19451,7 +19354,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated fast food spot, check out Food truck trip located at Food truck trip, Corniche bizerte Bizerte, 7000. This popular destination offers a range of fast food options to choose from and has a rating of 5.0. It's open during these hours: 15:00-22:00, but closed on Mondays. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at https://www.google.com/maps/place/Food+truck+trip/data=!4m7!3m6!1s0x12e31fd3315165e7:0x9a47e23031116f24!8m2!3d37.3099464!4d9.8684896!16s%2Fg%2F11nnn2trcn!19sChIJ52VRMdMf4xIRJG8RMTDiR5o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 811 925.</t>
+          <t>Food truck trip is a fast-food restaurant located in Bizerte, Tunisia (37.275992, 9.8701015). This highly rated (5.0/5) restaurant is open from 3:00 PM to 10:00 PM and is closed on Mondays.</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19461,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out mshwy 5 njwm located at mshwy 5 njwm, km 21 Route De Bizerte, chorfech. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-23:59. To get there, use these GPS coordinates: 36.94532, 10.04884. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100087187335666 or call them at 24 887 610.</t>
+          <t>A 5-star rated cafe and grill called mshwy 5 njwm is located in Bizerte, Tunisia. It offers a great dining experience with its delicious grills and mchoui. The cafe is also known for its cleanliness, with 435 positive reviews, a rating of 4.3, and a featured image showcasing its beautiful space. It is easily accessible with its own parking lot and is open from 10:00-23:59 every day.</t>
         </is>
       </c>
     </row>
@@ -19661,7 +19564,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Restaurant Le Souk located at Restaurant Le Souk, Place sidi Brahim Jomni ( a cote de station Taxi, 52 Rue De Bizerte, Houmt Souk. This top-rated destination is perfect for Restaurant familial lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-22:00. To get there, use these GPS coordinates: 33.87576, 10.85745.</t>
+          <t>Restaurant Le Souk is a family-friendly restaurant located in Houmt Souk, Tunisia. Situated at the heart of Place sidi Brahim Jomni, it boasts an impressive 4.5-star rating based on 62 reviews. With its convenient location near a taxi stand and its extended hours from 12:00 PM to 10:00 PM, Restaurant Le Souk is an ideal spot for locals and tourists alike. It offers a culinary journey with its tantalizing aromas and flavors, specializing in mouthwatering dishes that showcase the richness of Tunisian cuisine.</t>
         </is>
       </c>
     </row>
@@ -19768,9 +19671,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, check out Restaurant Le Sport Nautique located at Quai Tarak Ibn Ziad, Bizerte 7000. 
-This top-rated restaurant is a must-visit spot for Restaurant lovers. 
-With a rating of 4.0, it's widely recognized for its excellent cuisine. It's open during these hours: 12:00-15:00, 19:00-23:00. To get there, use these GPS coordinates: 37.2724144, 9.8793804. For more details, visit their website at https://www.facebook.com/pages/Restaurant-Le-Sport-Nautique/139232646147524 or call them at 72 432 262.</t>
+          <t>Restaurant Le Sport Nautique is a popular dining destination in Bizerte (lon: 9.8793804, lat: 37.2724144), with a rating of 4.0 based on 286 reviews. It offers a delightful dining experience, featuring a menu specializing in seafood and grilled dishes. The restaurant boasts a picturesque location with a terrace overlooking the waterfront, providing breathtaking views while you savor your meal.</t>
         </is>
       </c>
     </row>
@@ -19877,7 +19778,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated restaurant with a 4.2 rating, check out Bedouin bizerte located at Bedouin bizerte, Bizerte. This must-visit spot is perfect for Restaurant and Patisserie lovers and is open during these hours: 06:00-02:00. For more details, visit their website at https://www.facebook.com/Cafe.Le.Bedouin/ or call them at 53 505 050.</t>
+          <t>Bedouin bizerte is a restaurant located in Bizerte, Tunisia with coordinates (37.2725849, 9.8719093). It has a rating of 4.2 and offers a variety of dishes including brunch, desserts, and pasta. The restaurant is known for its friendly staff, good prices, and excellent dining experience.</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19881,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a great restaurant, check out Restaurant EL KSIBA located at Vieux port la Ksiba, Bizerte. This top-rated destination is perfect for restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:30, but closed on Monday. To get there, use these GPS coordinates: 37.27713, 9.87574. For more details, visit their website at  or call them at 54 209 093.</t>
+          <t>Restaurant EL KSIBA is a highly rated restaurant located in the old port of La Ksiba in Bizerte. It serves a variety of dishes, including seafood, soups, desserts, and grilled meats. The restaurant has a large terrace overlooking the port and is open from 9:00 AM to 10:30 PM every day except Mondays. It is known for its fresh ingredients, generous portions, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -20087,7 +19988,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out HIPPO LAND located at HIPPO LAND, Boulevard Habib Bougatfa,, Bizerte. This top-rated destination is perfect for Centre de loisirs lovers and offers a range of Centre de loisirs, Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 37.277402345635, 9.877438516257. For more details, visit their website at https://www.facebook.com/HIPPOLAND.BIZERTE/ or call them at 97 716 000.</t>
+          <t>HIPPO LAND is a leisure center and restaurant located in Bizerte, Tunisia. The center offers various activities such as a playground, making it a great place for children to enjoy. The restaurant serves a variety of food options, including pasta and coffee. The leisure center is open from 8 am to 10 pm every day except Mondays. You can reach out at 97 716 000 to know more. Its coordinates are (37.277402345635, 9.877438516257)</t>
         </is>
       </c>
     </row>
@@ -20190,9 +20091,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Cabana Restaurant located at 8V28+V9F Cabana Restaurant, North, Bizerte. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:30-02:00. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 50 839 177.</t>
+          <t>**Cabana Restaurant**, located at 8V28+V9F Cabana Restaurant in Bizerte (37.2725849, 9.8719093), offers a wide variety of dishes and beverages. With a 4.0 rating and 65 reviews, it's a popular spot for locals and tourists alike. The restaurant opens at 9:30 AM and closes at 2:00 AM, providing ample time to enjoy a meal or a drink. It's conveniently located in the heart of the city, making it easy to access from any part of Bizerte.</t>
         </is>
       </c>
     </row>
@@ -20299,7 +20198,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated dining spot, Restaurant Joba at 9 rue du premier mai is the place to go. With a 4.2 rating, this Restaurant is a must-visit for food enthusiasts. It's open 24 hours a day, so you can satisfy your cravings anytime. For more details, visit their website at https://www.facebook.com/Restaurant.Joba or call them at 96 156 730.</t>
+          <t>Restaurant Joba, located at 9 rue du premier mai, Bizerte, offers a 24/7 dining experience with highly rated reviews (4.2/5). It specializes in restaurant cuisine, and reviewers often mention the value for money, friendly servers, generous portions, and well-presented dishes.</t>
         </is>
       </c>
     </row>
@@ -20398,9 +20297,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for something fun to do, check out Bianco Food at 7VP8+X6G Bianco Food, Bizerte. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their link at https://www.google.com/maps/place/Bianco+Food/data=!4m7!3m6!1s0x12e31e5cfee2f735:0xc0318847167ba301!8m2!3d37.2874356!4d9.8655888!16s%2Fg%2F11g71sn947!19sChIJNffi_lwe4xIRAaN7FkeIMcA?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Bianco Food, located at 7VP8+X6G in Bizerte, is a renowned restaurant known for its delectable pizzas. Rated 4.3 out of 5 with 49 reviews, this restaurant is a popular destination for locals and tourists alike. Bianco Food is open from 12:00 pm to 12:00 am daily, excluding Mondays. Despite the lack of available information regarding website and phone number, Bianco Food has garnered a strong following, as evidenced by its numerous positive reviews.</t>
         </is>
       </c>
     </row>
@@ -20503,9 +20400,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to eat, check out Mr Tacos located at 7VX8+HGX Mr Tacos, Unnamed Road, Bizerte. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at  or call them at 58 774 026.</t>
+          <t>Mr Tacos is a restaurant located in Bizerte, Tunisia. The restaurant offers a variety of tacos, and is highly rated by its customers. It is open from 12:00-00:00, and is closed on Mondays. The restaurant is located at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -20600,9 +20495,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Lella Fatma located at 7VFF+6P3 Lella Fatma, Rue du 2 mars1934, Bizerte. 
-This top-rated destination is perfect for Restaurant familial lovers and offers a range of Restaurant familial to choose from. 
-With a rating of 5.0, it's a must-visit spot.</t>
+          <t>Lella Fatma is a restaurant located in Bizerte, Tunisia at coordinates (37.288874258422, 9.866513032404). The restaurant specializes in family-style dining and has received a 5.0 rating from its customers.</t>
         </is>
       </c>
     </row>
@@ -20705,9 +20598,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Bella Ciao Bizerte located at 7VW8+JG2 Bella Ciao Bizerte, Bizerte. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-02:00, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website or call them at 98 136 542.</t>
+          <t>Bella Ciao Bizerte is an Italian restaurant located at 7VW8+JG2 Bella Ciao Bizerte, Bizerte, Tunisia. It has a rating of 4.1 and is open from 10 am to 2 am on weekdays. Bella Ciao Bizerte is known for its delicious Italian cuisine and friendly service.</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20693,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great family restaurant, check out Venis cafe&amp; Resto Bizerte located at 6VJ3+MV5 Venis cafe&amp; Resto Bizerte, Menzel Abderrahmane. This top-rated destination is perfect for Restaurant familial lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 15.3376554, 120.7016539. For more details, call them at 54 060 789.</t>
+          <t>Located in Venis cafe&amp; Resto Bizerte, Tunisia, this restaurant is renowned for its cuisine, earning a remarkable 5.0 rating. It's a family-friendly establishment that caters to a warm and inviting atmosphere, offering a delightful dining experience for patrons of all ages.</t>
         </is>
       </c>
     </row>
@@ -20905,7 +20796,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Bizertino Food. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 37.2841778, 9.8733089. For more details, call them at 20 874 818.</t>
+          <t>Bizertino Food is a restaurant located in Bizerte, Tunisia. The restaurant is renowned for its delicious cuisine, earning it a 5.0-star rating from its guests. Bizertino Food's menu features a variety of dishes, and its convenient location makes it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -21000,7 +20891,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great place to relax and enjoy a cup of coffee, head to Cafe Blel located at Station Louages - Bizerte MB, Menzel Bourguiba. This top-rated Cafe is a must-visit spot for Cafe lovers. With a rating of 5.0, it's one of the best places in the city. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Cafe Blel is a cafe located in Menzel Bourguiba, Bizerte, Tunisia. It is open every day and offers a variety of food and drink options. The cafe has a rating of 5.0 out of 5 on Google, with one review. The cafe is located at 37.1489944, 9.788904.</t>
         </is>
       </c>
     </row>
@@ -21107,7 +20998,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated spot, check out Restaurant Le Sport Nautique located at Quai Tarak Ibn Ziad, Bizerte 7000. It has a 4.0 rating and falls under the category of Restaurant. With its convenient hours of 12:00-15:00, 19:00-23:00, it's a great choice for dining out. To get there, use the GPS coordinates (37.2724144, 9.8793804). For more information, visit their Facebook page at https://www.facebook.com/pages/Restaurant-Le-Sport-Nautique/139232646147524 or call them at 72 432 262.</t>
+          <t>The Restaurant Le Sport Nautique is located in the city of Bizerte, Tunisia, at the coordinates (37.2724144, 9.8793804). It is a popular restaurant with a rating of 4.0, offering a wide range of cuisines including seafood, fish, and vegetarian options. The restaurant has a beautiful view of the sea and a friendly staff. It is a great place to relax and enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -21214,7 +21105,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great dining experience, head to Restaurant Joba at 9 rue du premier mai. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. Rated 4.2 stars, it's a must-visit spot. It's open 24 hours. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.facebook.com/Restaurant.Joba or call them at 96 156 730.</t>
+          <t>Restaurant Joba, located in Bizerte (37.2725849, 9.8719093), is a highly rated (4.2/5) restaurant that operates 24/7. It specializes in Tunisian cuisine and offers a wide selection of dishes at affordable prices. The restaurant is known for its generous portions, friendly service, and cozy atmosphere. Customers rave about the taste and quality of the food, particularly the couscous, tajines, and grilled meats.</t>
         </is>
       </c>
     </row>
@@ -21309,9 +21200,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Jumanji juice bar located at 7VCF+RMR Jumanji juice bar, Bizerte. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Jumanji+juice+bar/data=!4m7!3m6!1s0x12e31f80878b7a11:0x331eea86e5db8b89!8m2!3d37.2721187!4d9.8741501!16s%2Fg%2F11qpv_f2rt!19sChIJEXqLh4Af4xIRiYvb5YbqHjM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jumanji juice bar is a popular restaurant located in Bizerte, Tunisia. The restaurant is known for its delicious food and friendly service. Jumanji juice bar offers a wide variety of dishes, including salads, sandwiches, and pizzas. The restaurant is also known for its fresh juices and smoothies. Jumanji juice bar is located at 7VCF+RMR Jumanji juice bar and is open daily from 10am to 10pm.</t>
         </is>
       </c>
     </row>
@@ -21410,7 +21299,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Calimero Pizzaria located at 50 Rue IBN Khaldoun. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.271829984511, 9.870483945359. For more details, visit their website at https://www.google.com/maps/place/Calimero+Pizzaria/data=!4m7!3m6!1s0x12e31f8092de9cef:0x949b154954ffa823!8m2!3d37.2700811!4d9.871259!16s%2Fg%2F11nnzj7l73!19sChIJ75zekoAf4xIRI6j_VEkVm5Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 235 540.</t>
+          <t>Calimero Pizzaria is a highly rated pizzeria located at 50 Rue IBN Khaldoun in Bizerte, Tunisia. It boasts a 4.7-star rating based on 7 reviews, making it a popular choice for pizza lovers. Known for its delicious pizzas and friendly service, Calimero Pizzaria is conveniently situated at 37.271829984511 latitude and 9.870483945359 longitude, making it easy to find and enjoy a tasty meal.</t>
         </is>
       </c>
     </row>
@@ -21513,7 +21402,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>If you're searching for a great place to eat in bizerte, check out The Garage, conveniently located at 7V96+28V The Garage. This highly-rated cafeteria boasts a 4.7 rating and is a top choice for those seeking a delicious meal. The Garage is open from 06:00-22:00 during the week, so be sure to stop by for breakfast, lunch, or dinner.</t>
+          <t>Welcome to The Garage, a vibrant cafeteria located in the heart of Bizerte. We offer a wide range of delicious food and drinks to keep you energized throughout the day, from early morning (6:00 AM) until late evening (10:00 PM). Our cozy atmosphere and friendly staff make us the perfect place to relax and connect with friends or colleagues.</t>
         </is>
       </c>
     </row>
@@ -21616,10 +21505,7 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Dibarka italian located at 6 rue Ibn Khaldoun, Bizerte. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. 
-With a rating of 4.3, it's a must-visit spot. 
-It's open 24h/24 but closed on Tuesday. To get there, use these GPS coordinates: 37.271829984511, 9.870483945359. For more details, visit their website at  or call them at 23 493 836.</t>
+          <t>**Dibarka Italian**, an Italian restaurant located at 6 rue Ibn Khaldoun, Bizerte, offers a tantalizing experience with its delectable Italian cuisine. Open 24 hours except on Tuesdays, it's the perfect destination for those seeking an authentic Italian meal. With an impressive 4.3 rating on Google Reviews, it's a highly recommended destination for food lovers in the area.</t>
         </is>
       </c>
     </row>
@@ -21718,9 +21604,7 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out mT`m l'kl@ ltwnsy@ located in rue d'Espagne, Bizerte. 
-This top-rated destination is perfect for Restaurant and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:30, but closed on . To get there, use these GPS coordinates: 37.293825480104, 9.856321553322. For more details, visit their website at or call them at .</t>
+          <t>Discover mT`m l'kl@ ltwnsy@, a top-rated restaurant in Bizerte! Located at 37.293825480104, 9.856321553322, this establishment boasts a 4.3-star rating based on 3 reviews. With its operational hours from 8:00 AM to 11:30 PM and various dining options, mT`m l'kl@ ltwnsy@ is a must-visit for food enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -21823,8 +21707,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated restaurant, check out ElPacha Ghalloussi located at 7W3C+X8P ElPacha Ghalloussi, Bizerte. 
-This popular destination is perfect for Restaurant lovers and has a rating of 5.0. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/ElPacha+Ghalloussi/data=!4m7!3m6!1s0x12e2e18f9b1f1bad:0xb5c6259fd4413b18!8m2!3d37.2549705!4d9.9208323!16s%2Fg%2F11rgywdbyy!19sChIJrRsfm4_h4hIRGDtB1J8lxrU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 441 389.</t>
+          <t>ElPacha Ghalloussi is a restaurant located in Bizerte, Tunisia. It has a 5.0 rating based on 2 reviews. The restaurant is open 24 hours a day and is located at 7W3C+X8P ElPacha Ghalloussi, Bizerte, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -21919,7 +21802,7 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated family restaurant, check out Venis cafe&amp; Resto Bizerte located at 6VJ3+MV5 Venis cafe&amp; Resto Bizerte, Menzel Abderrahmane. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 15.3376554, 120.7016539. For more details, call them at 54 060 789.</t>
+          <t>Venis cafe&amp; Resto Bizerte is a family restaurant located in Bizerte ( Tunisia ). It's rated 5 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -22014,8 +21897,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Restaurant, check out Les 4A Food located at 7VC9+GX5 Les 4A Food, Bizerte. 
-This highly-rated destination is a must-visit spot with a rating of 5.0. For more information, visit their website at https://www.google.com/maps/place/Les+4A+Food/data=!4m7!3m6!1s0x12e31fe93bea7c19:0xec72861760ffe17c!8m2!3d37.2712443!4d9.8700284!16s%2Fg%2F11y1lp6dzb!19sChIJGXzqO-kf4xIRfOH_YBeGcuw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Les 4A Food is a highly-rated restaurant located in Bizerte (37.2725849, 9.8719093). With a perfect score of 5.0, this establishment serves delicious food in a welcoming atmosphere. Unfortunately, limited information is available about its menu, schedule, or contact details. Information may be outdated.</t>
         </is>
       </c>
     </row>
@@ -22114,7 +21996,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Narcisse Sweets located at Rue Bizerte, Siliana. This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 36.087787655685, 9.368630626834. For more details, visit their website or call them at 99 122 900.</t>
+          <t>Narcisse Sweets is a bakery located in Siliana, Tunisia, on Rue Bizerte. The bakery offers a variety of sweet treats, including cakes, pastries, and cookies. Narcisse Sweets is open from 8am to 9pm, but closed on Sundays. The bakery has a 4.0 rating on Google, with reviewers praising the delicious pastries and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -22221,7 +22103,7 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reputable Center for technical control, visit Agence Technique des Transport Terrestres Bizerte, located at 7R8X+784 Agence Technique des Transport Terrestres Bizerte, Bizerte 7000. This top-rated destination offers a range of services for Center for technical control lovers. With a rating of 3.3, it's a must-visit spot. It's open during these hours: 07:30-14:30, but closed on Sunday. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at http://attt.com.tn/ or call them at 72 534 160.</t>
+          <t>This technical control center is located in Bizerte (37.275992, 9.8701015) and offers its services from Monday to Saturday from 7:30 am to 2:30 pm. It is closed on Sundays and its rating is 3.3 out of a total of 47 reviews made by customers. It has a website (http://attt.com.tn/) and a phone number (72 534 160).</t>
         </is>
       </c>
     </row>
@@ -22316,7 +22198,9 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a train station, check out Bizerte located at Bizerte, Banzart. This top-rated destination is perfect for train station lovers and offers a range of train services to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.27442, 9.87391. For more details, visit their website at https://www.google.com/maps/place/Bizerte/data=!4m7!3m6!1s0x12e31fac61a55ded:0xf93f813d5031f46c!8m2!3d37.267308!4d9.8682295!16s%2Fg%2F1hc64l2_q!19sChIJ7V2lYawf4xIRbPQxUD2BP_k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at call them at unknown phone number.</t>
+          <t xml:space="preserve">Bizerte is a city in northern Tunisia with a population of 6632. It is located on the Mediterranean Sea, at the mouth of the Medjerda River. The city is known for its beautiful beaches, its history, and its culture. 
+**Geolocation**
+Bizerte is located at latitude 37.27442 and longitude 9.87391. </t>
         </is>
       </c>
     </row>
@@ -22415,9 +22299,7 @@
       </c>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a place to catch a bus, check out Gare routere de Bizerte located at Gare routere de Bizerte, P8, Zarzouna 7000. 
-This popular destination is perfect for transportation lovers but there are no additional categories available. 
-With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.2598, 9.8863. For more details, visit their website at http://www.srtbizerte.com.tn/</t>
+          <t>The Gare Routière de Bizerte is located in Zarzouna, Tunisia, at coordinates (37.2598, 9.8863). It is a bustling bus station with 22 reviews and a rating of 2.8. 3 of the reviews mention the airport, indicating that the station is well-connected to the local airport. It offers convenient transportation options for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -22520,7 +22402,7 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and in need of transportation services, check out Gare routiere de Bizerte. This reputable destination is located at 7V9F+J2G Gare routiere de Bizerte, Rue Ler Jule 1956, Bizerte 7000. They offer a range of services to cater to your transportation needs. With a rating of 3.3, it's a place worth considering. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, check out their website at http://www.srtbizerte.com.tn/ or call them at 99 645 758.</t>
+          <t>The Gare routiere de Bizerte is a transport hub located in the city of Bizerte, Tunisia. It offers bus services for both local and long-distance travel. The station is conveniently located in the center of the city, providing easy access to other modes of transportation and local attractions. With its well-connected network and central location, the Gare routiere de Bizerte is a convenient and accessible starting point for exploring the area.</t>
         </is>
       </c>
     </row>
@@ -22615,7 +22497,7 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a convenient transportation option, head to station bus 15,et taxis located at 7VQ3+4RX station bus 15,et taxis. This highly-rated station is perfect for taxi services. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their link at https://www.google.com/maps/place/station+bus+15,et+taxis/data=!4m7!3m6!1s0x12e31ef5b274d6f1:0x4cc7d544f17b5450!8m2!3d37.287863!4d9.8546103!16s%2Fg%2F1vq89fw8!19sChIJ8dZ0svUe4xIRUFR78UTVx0w?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>"station bus 15,et taxis" is a taxi station located in Bizerte, Tunisia. It offers taxi services and is well-rated by customers. The station is easily accessible, located at (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -22718,7 +22600,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reputable bus and coach transportation company, look no further than Station Tarek Ibn Zied located at 7V9F+J2G Station Tarek Ibn Zied, Rue Ler Jule 1956, Bizerte 7000. With a rating of 3.0, it's a reliable choice for your transportation needs. To get in touch, you can call them at 72 432 278 or visit their website at http://www.srtbizerte.com.tn/.</t>
+          <t>Station Tarek Ibn Zied is a bus and coach transport company located in Bizerte, Tunisia. It offers transport services to various destinations in the region. The company is located at 7V9F+J2G Station Tarek Ibn Zied, Rue Ler Jule 1956, Bizerte 7000, and can be contacted via phone at 72 432 278 or through their website at http://www.srtbizerte.com.tn/.</t>
         </is>
       </c>
     </row>
@@ -22813,7 +22695,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a taxi, check out Station louage Bizerte-Tunis located at 7V8P+3G4 Station louage Bizerte-Tunis, Zarzouna. This top-rated destination is perfect for anyone needing a taxi. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2649615, 9.8849313.</t>
+          <t>Station louage Bizerte-Tunis is a taxi station located in Zarzouna, Tunisia. It offers a convenient and affordable way to travel between Bizerte and Tunis. The station is located at 7V8P+3G4 and is open 24 hours a day, 7 days a week. It is wheelchair accessible and offers a variety of amenities, including a waiting area, restrooms, and a snack bar. The station is located in a convenient location, making it easy to get to and from your destination.</t>
         </is>
       </c>
     </row>
@@ -22908,9 +22790,7 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reputable taxi station, check out mHT@ Hflt located at 7VG9+CWH mHT@ Hflt, Bizerte. 
-This top-rated destination is perfect for taxi lovers and offers a range of services to choose from. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>mHT@ Hflt is a 3.7-rated taxi station in Bizerte. Located at 7VG9+CWH mHT@ Hflt, its coordinates are (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -23001,11 +22881,7 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Station bus 2000, located at 7VM2+V45 Station bus 2000, Unnamed Road, Bizerte. 
-This top-rated destination is perfect for school bus service lovers offers a range of services to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.2725849, 9.8719093. 
-For more details, visit their website at https://www.google.com/maps/place/Station+bus+2000/data=!4m7!3m6!1s0x12e31fc727ccb2d5:0xeaf615cce891b2be!8m2!3d37.2845833!4d9.8502537!16s%2Fg%2F11v0rd_fdf!19sChIJ1bLMJ8cf4xIRvrKR6MwV9uo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station bus 2000 is a bus service located in Bizerte, Tunisia (37.2725849, 9.8719093). It offers school bus services.</t>
         </is>
       </c>
     </row>
@@ -23096,7 +22972,7 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable Station-service, check out Station louage bizerte located at 7V9C+MWV Station louage bizerte, Quai Nord du Canal de, Bizerte. This top-rated destination with a rating of 5.0 is a must-visit spot for Station-service lovers. To get there, use these GPS coordinates: 37.27275, 9.87588.</t>
+          <t>Station louage Bizerte is a gas station located in 7V9C+MWV Station louage bizerte, Quai Nord du Canal de, Bizerte. The GPS coordinates of this place are (37.27275, 9.87588).</t>
         </is>
       </c>
     </row>
@@ -23191,9 +23067,7 @@
       </c>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a transportation solution, check out Station gare routiere jarzouna located at Station gare routiere jarzouna, Gare routere de Bizerte, P8, Zarzouna, 7000. 
-This top-rated destination is perfect for Societe de transport en bus et autocar lovers. 
-With a rating of 2.0, it's a must-visit spot. Its website is http://www.stb.com.tn/.</t>
+          <t>Station gare routiere jarzouna is a bus station in Zarzouna, Tunisia. It offers bus transportation services to various destinations. The station is located at (37.275992, 9.8701015).</t>
         </is>
       </c>
     </row>
@@ -23284,7 +23158,7 @@
       </c>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>Are you in bizerte and searching for something fun to do? Consider visiting Station SNTRI located on 7V9C+V55 Station SNTRI, Bizerte. This praised destination is ideal for Service de transport enthusiasts with a  rating of 3.0, making it a must-visit. Use the GPS coordinates (37.2725849, 9.8719093) to navigate there. Kindly note that further information is unavailable at this moment.</t>
+          <t>Station SNTRI is a transport service located in Bizerte at the coordinates (37.2725849, 9.8719093). It has a rating of 3.0 out of 5 and is owned by Station SNTRI (proprietaire). The primary category is Transport Service, and it offers various transportation-related services to the local community.</t>
         </is>
       </c>
     </row>
@@ -23379,7 +23253,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Aeroport Tunis Carthage - Bizerte - Menzel Bourguiba located at Aeroport Tunis Carthage - Bizerte - Menzel Bourguiba, RN8. This top-rated destination is perfect for Arret de bus lovers. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.148145310005, 9.782440695084.</t>
+          <t>Aeroport Tunis Carthage - Bizerte - Menzel Bourguiba is a bus stop located at Aeroport Tunis Carthage - Bizerte - Menzel Bourguiba, RN8, Bizerte, Tunisia. It has a rating of 3.0 based on 2 reviews and offers no additional amenities or services. Its geographical coordinates are (37.148145310005, 9.782440695084).</t>
         </is>
       </c>
     </row>
@@ -23474,7 +23348,7 @@
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable taxi service, check out Station louage Bizerte-Tunis located at 7V8P+3G4 Station louage Bizerte-Tunis, Zarzouna. This top-rated destination is perfect for those seeking convenient transportation. With a rating of 5.0, it's a must-visit spot for travelers in need of a taxi service. To get there, use these GPS coordinates: 37.2649615, 9.8849313. For more details, visit their website at https://www.google.com/maps/place/Station+louage+Bizerte-Tunis/data=!4m7!3m6!1s0x12e31fcc9b1dd4e3:0xa6ca59be03bbe364!8m2!3d37.2651464!4d9.8863163!16s%2Fg%2F11kpznj1sk!19sChIJ49Qdm8wf4xIRZOO7A75ZyqY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station louage Bizerte-Tunis is a highly rated taxi station in bizerte, Tunisia, with a rating of 5.0 based on 4 reviews. It is located at 7V8P+3G4 Station louage Bizerte-Tunis, Zarzouna, and offers taxi services to travelers. The station is open 24/7 and has a variety of amenities, including a waiting area, restrooms, and a currency exchange.</t>
         </is>
       </c>
     </row>
@@ -23569,9 +23443,7 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable taxi service, mHT@ Hflt is an excellent choice. 
-This top-rated destination is perfect for those seeking a hassle-free and convenient way to get around. 
-With a rating of 3.7, it's a must-visit spot for your transportation needs. You can find them at 7VG9+CWH mHT@ Hflt, Bizerte. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%AD%D8%A7%D9%81%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x12e31f021c565b91:0x494d0ad350aa3320!8m2!3d37.2760723!4d9.8698703!16s%2Fg%2F11j8lfg_bn!19sChIJkVtWHAIf4xIRIDOqUNMKTUk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mHT@ Hflt is a taxi station located in Bizerte, Tunisia. It is situated at the coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -23662,7 +23534,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a Service de transport, check out Station SNTRI located at 7V9C+V55 Station SNTRI, Bizerte. This top-rated destination offers a range of Service de transport to choose from. With a rating of 3.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Station SNTRI, located in Bizerte, Tunisia (lon: 9.8719093, lat: 37.2725849), is a transportation service provider. It offers various transportation services to meet the needs of the community. Despite lacking a description, website, and specific contact information, Station SNTRI has received a 3.0 rating from a single reviewer, indicating some level of customer satisfaction. While further details are not available, Station SNTRI stands as a notable transportation hub in the area.</t>
         </is>
       </c>
     </row>
@@ -23757,7 +23629,7 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>If you're in bizerte, Station gare routiere jarzouna is a must-visit spot for Societe de transport en bus et autocar lovers. Located at Station gare routiere jarzouna, Gare routere de Bizerte, P8, Zarzouna, 7000, it's open during these hours: workday_timing, and closed on closed_on. With a rating of 2.0, it offers a range of categories to choose from. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at http://www.stb.com.tn/.</t>
+          <t>**Station gare routiere jarzouna** is a bus station located at the city of Bizerte, Tunisia, with coordinates (37.275992, 9.8701015). The bus station offers transportation services to various destinations via buses and autocars.</t>
         </is>
       </c>
     </row>
@@ -23864,7 +23736,7 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated Centre de controle technique, check out Agence Technique des Transport Terrestres Bizerte at 7R8X+784, Bizerte 7000. This must-visit spot has a rating of 3.3 and is open during these hours: 07:30-14:30, but closed on dimanche. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at http://attt.com.tn/ or call them at 72 534 160.</t>
+          <t>Agence Technique des Transport Terrestres Bizerte is a technical control center located in Bizerte, Tunisia. It is situated at 37.275992 latitude and 9.8701015 longitude. The center offers technical inspections for vehicles and is open from 07:30 to 14:30 on weekdays. It is closed on Sundays. The center has received 47 reviews with an average rating of 3.3.</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23835,7 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Gare routere de Bizerte located at Gare routere de Bizerte, P8, Zarzouna 7000. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 2.8, it's a must-visit spot. For more details, visit their website at http://www.srtbizerte.com.tn/ or call them at .</t>
+          <t>The Bizerte bus station, located at Gare routere de Bizerte, P8, Zarzouna 7000, offers bus services to various destinations. With a rating of 2.8, the station has received mixed reviews from users, with some mentioning issues with punctuality and cleanliness. Despite these concerns, the station remains a vital transportation hub for the city of Bizerte, providing convenient connections to other cities and towns in Tunisia.</t>
         </is>
       </c>
     </row>
@@ -24066,7 +23938,7 @@
       </c>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a service de transport, check out Gare routiere de Bizerte located at 7V9F+J2G Gare routiere de Bizerte, Rue Ler Jule 1956, Bizerte 7000. This top-rated destination is perfect for service de transport lovers and offers a range of service de transport to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at http://www.srtbizerte.com.tn/ or call them at 99 645 758.</t>
+          <t>**Gare routière de Bizerte** is a bus station located in the city of Bizerte, Tunisia (lon: 9.8701015, lat: 37.275992). We don't have any basic information about the station, but you can visit their website: www.srtbizerte.com.tn</t>
         </is>
       </c>
     </row>
@@ -24161,7 +24033,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a top-rated port maritime, check out Port de plaisance located at Port de plaisance, Blvd Habib Bougatfa. With a rating of 3.5, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+de+plaisance/data=!4m7!3m6!1s0x12e31e367179aacd:0x9ccf05e19d447cec!8m2!3d37.2735448!4d9.8812526!16s%2Fg%2F11_qr27c4!19sChIJzap5cTYe4xIR7HxEneEFz5w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 0123456789.</t>
+          <t>Port de plaisance is a marina located in Bizerte, Tunisia. It offers a range of services for boaters, including mooring, fuel, water, and electricity. The marina is also home to a number of restaurants, shops, and other amenities. It is situated at coordinates (37.2720344, 9.8799617).</t>
         </is>
       </c>
     </row>
@@ -24268,7 +24140,7 @@
       </c>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable gas station, check out Shell Bizerte GP11 located at Shell Bizerte GP11, P11 Route, Menzel Bourguiba 7000. This top-rated destination is open 24 hours a day and offers a range of services including a car wash and a convenience store. With a rating of 4.0, it's a must-visit spot for drivers in the area. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044820-bizerte-gp11 or call them at 71 249 149.</t>
+          <t>Shell Bizerte GP11 is a gas station located in Bizerte, Tunisia, at coordinates (37.1489944, 9.788904). It offers 24-hour service and has a rating of 4.0 based on 10 reviews. It also features a car wash station, a convenience store, and a featured image.</t>
         </is>
       </c>
     </row>
@@ -24363,9 +24235,7 @@
       </c>
       <c r="Y239" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a Station de taxis, check out station bus 15,et taxis located at 7VQ3+4RX station bus 15,et taxis, Bizerte. 
-This top-rated destination is perfect for those seeking a Station de taxis and offers a range of services to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/station+bus+15,et+taxis/data=!4m7!3m6!1s0x12e31ef5b274d6f1:0x4cc7d544f17b5450!8m2!3d37.287863!4d9.8546103!16s%2Fg%2F1vq89fw8!19sChIJ8dZ0svUe4xIRUFR78UTVx0w?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located at (37.2725849, 9.8719093) in Bizerte, this establishment offers taxi services and a bus station for bus number 15. With a rating of 4.4 and 8 reviews, it is managed by 'station bus 15,et taxis (proprietaire)'.</t>
         </is>
       </c>
     </row>
@@ -24464,8 +24334,7 @@
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable taxi service, try Taxi to MJ, MA, ZZ located at 7V9F+M4W Taxi to MJ, MA, ZZ, Quai Tarak Ibn Ziad, Bizerte. 
-This top-rated destination offers taxi services and has a rating of 3.4. To get there, use these GPS coordinates: 37.212943757221, 10.124218562888. You can call them at 54 907 229 for more details.</t>
+          <t>Taxi to MJ, MA, ZZ is a taxi station located in Bizerte, Tunisia. It offers taxi services to various destinations in Bizerte and its surroundings. The taxi station is located at 7V9F+M4W Taxi to MJ, MA, ZZ, Quai Tarak Ibn Ziad, Bizerte. Its coordinates are (37.212943757221, 10.124218562888) and its main category is Taxi Station.</t>
         </is>
       </c>
     </row>
@@ -24568,7 +24437,7 @@
       </c>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>If you're in bizerte, check out Station Tarek Ibn Zied, located at 7V9F+J2G Station Tarek Ibn Zied, Rue Ler Jule 1956, Bizerte 7000. This well-rated destination is perfect for Societe de transport en bus et autocar lovers. With a rating of 3.0, it's a must-visit spot. Its phone number is 72 432 278. For more details, visit their website at http://www.srtbizerte.com.tn/ or look them up on Google Maps.</t>
+          <t>Station Tarek Ibn Zied is a bus and coach transport company located in Bizerte, Tunisia. It offers transportation services to various destinations. The station is situated at the coordinates (37.275992, 9.8701015) and can be contacted at 72 432 278. It has a rating of 3.0 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -24663,9 +24532,7 @@
       </c>
       <c r="Y242" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a Station de taxis, check out Station louage Bizerte-Tunis located at 7V8P+3G4, Zarzouna. 
-This top-rated destination has 4 reviews and offers a rating of 5.0. 
-To get there, use these GPS coordinates: 37.2649615, 9.8849313. For more details, visit their website at https://www.google.com/maps/place/Station+louage+Bizerte-Tunis/data=!4m7!3m6!1s0x12e31fcc9b1dd4e3:0xa6ca59be03bbe364!8m2!3d37.2651464!4d9.8863163!16s%2Fg%2F11kpznj1sk!19sChIJ49Qdm8wf4xIRZOO7A75ZyqY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Station louage Bizerte-Tunis is a taxi station located in Zarzouna, Tunisia. It is rated 5.0 stars by 4 reviewers and offers taxi services to the Bizerte and Tunis areas. Its exact coordinates are (37.2649615, 9.8849313).</t>
         </is>
       </c>
     </row>
@@ -24760,7 +24627,7 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a top-rated destination, check out OMMP located at OMMP, Bizerte. This destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 3.8, it's a must-visit spot.</t>
+          <t>Located at (37.2725849, 9.8719093), OMMP is a maritime port in the city of Bizerte, Tunisia. It offers port services and is a major hub for maritime activities in the region.</t>
         </is>
       </c>
     </row>
@@ -24855,7 +24722,7 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out mHT@ Hflt located at 7VG9+CWH mHT@ Hflt, Bizerte. This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>mHT@ Hflt is a taxi station located in Bizerte, Tunisia with coordinates (9.8719093, 37.2725849). It is currently rated 3.7 out of 5 based on 3 reviews, but other than that, no further information is available.</t>
         </is>
       </c>
     </row>
@@ -24950,7 +24817,7 @@
       </c>
       <c r="Y245" t="inlineStr">
         <is>
-          <t>In Bizerte, consider visiting Station gare routiere jarzouna situated at Gare routere de Bizerte, P8, Zarzouna, 7000. This highly rated (2.0 out of 5) destination specializes in Societe de transport en bus et autocar. Check out their website at http://www.stb.com.tn/ for further details.</t>
+          <t>Station gare routiere jarzouna is a bus and coach transport company located in Bizerte. It offers bus and coach transportation services to its customers. The company has a rating of 2.0 out of 5.0 based on 1 review. The company's main category is Societe de transport en bus et autocar and its website is www.stb.com.tn. The company's address is Station gare routiere jarzouna, Gare routere de Bizerte, P8, Zarzouna, 7000. The company's coordinates are (37.275992, 9.8701015) and its id is ChIJ2cIYOaMf4xIROYwhXF6WumU.</t>
         </is>
       </c>
     </row>
@@ -25041,7 +24908,7 @@
       </c>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a service de transport, check out Station SNTRI located at 7V9C+V55 Station SNTRI, Bizerte. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Station+SNTRI/data=!4m7!3m6!1s0x12e31f548510d3bb:0xfef404b95843d74e!8m2!3d37.2696335!4d9.8704849!16s%2Fg%2F11pgfxj59m!19sChIJu9MQhVQf4xIRTtdDWLkE9P4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station SNTRI, located in Bizerte (coordinates: 37.2725849, 9.8719093), is a transportation service provider with a rating of 3.0. Despite lacking a website and featured image, the station has one review.</t>
         </is>
       </c>
     </row>
@@ -25132,9 +24999,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable bus service, check out Station bus 2000 located at 7VM2+V45  Unnamed Road, Bizerte. 
-This top-rated destination is perfect for students and offers a quality bus services. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at  or call them at .</t>
+          <t>Station bus 2000 is a school bus service located in Bizerte, Tunisia. It is located at 37.2725849, 9.8719093 and offers school transportation services. It has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25094,7 @@
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Station Taxi Bhira located at 5 rue du theatre, Bizerte. This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.271150366925, 9.86821631891.</t>
+          <t>Station Taxi Bhira is a taxi stand located on 5 rue du theatre, in Bizerte (37.271150366925, 9.86821631891). The business received an average rating of 3.0 stars out of 5 on Google.</t>
         </is>
       </c>
     </row>
@@ -25328,7 +25193,7 @@
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Gare routere de Bizerte located at Gare routere de Bizerte, P8, Zarzouna 7000. This popular destination is perfect for those who love Arret de bus and offers a range of Arret de bus to choose from. With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.2598, 9.8863. For more details, visit their website at http://www.srtbizerte.com.tn/.</t>
+          <t>Gare Routiere de Bizerte is a bus station located in Zarzouna, Bizerte, Tunisia. With a rating of 2.8, it features a website and 22 reviews. It specializes in bus services and is conveniently located at P8, Zarzouna 7000. The station offers transportation options and is situated near the city center.</t>
         </is>
       </c>
     </row>
@@ -25423,7 +25288,7 @@
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Auto-route bizerte located at 6WWF+7R5 Auto-route bizerte, A4, Menzel Jemil. This top-rated destination is perfect for Aire d'autoroute lovers and offers a range of categories to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.247254579705, 9.910337999072. For more details, visit their website or call them at .</t>
+          <t>The "Auto-route bizerte" (lon: 9.910337999072, lat: 37.247254579705) is a service station conveniently located on the A4 highway in Menzel Jemil, Tunisia. This rest stop provides travelers with a variety of amenities and services to enhance their journey.</t>
         </is>
       </c>
     </row>
@@ -25526,7 +25391,7 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Gare routiere de Bizerte located at 7V9F+J2G Gare routiere de Bizerte, Rue Ler Jule 1956, Bizerte 7000. This top-rated destination is perfect for Service de transport lovers and offers a range of categories to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.275992, 9.8701015. For more details, visit their website at http://www.srtbizerte.com.tn/ or call them at 99 645 758.</t>
+          <t>The Bizerte Bus Station, located in the heart of Bizerte city, Tunisia, offers convenient transportation services to travelers. With a wide range of bus routes, it connects Bizerte to major cities across the country. Passengers can easily access the station, conveniently situated near local landmarks and amenities.</t>
         </is>
       </c>
     </row>
@@ -25633,9 +25498,7 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a great gas station, check out Shell Bizerte GP11 located at Shell Bizerte GP11, P11 Route, Menzel Bourguiba 7000. 
-This top-rated destination is perfect for Station-service lovers and also offers Station de lavage automobile, Superette. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, but closed on None. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044820-bizerte-gp11 or call them at 71 249 149.</t>
+          <t>Shell Bizerte GP11 is a gas station located at P11 Route, Menzel Bourguiba 7000, Bizerte, Tunisia. It is open 24 hours a day and offers a range of services including fuel, car wash, and a convenience store. The gas station has a rating of 4.0 out of 5 based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -25730,7 +25593,7 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>If you happen to be in bizerte, make sure to visit the well-known station bus 15,et taxis. This place is an excellent choice for Station de taxis lovers. With a rating of 4.4, this place is worth a visit. Find it at the following address: 7VQ3+4RX station bus 15,et taxis, Bizerte.</t>
+          <t>The station "station bus 15, et taxis" is located in Bizerte, Tunisia. It provides taxi and bus services, and is conveniently located at (37.2725849, 9.8719093). The station has been highly rated by previous customers with an average rating of 4.4.</t>
         </is>
       </c>
     </row>
@@ -25829,10 +25692,7 @@
       </c>
       <c r="Y254" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable taxi service, consider Taxi to MJ, MA, ZZ located at 7V9F+M4W Taxi to MJ, MA, ZZ, Quai Tarak Ibn Ziad. 
-This top-rated destination offers a range of taxi services to choose from. 
-With a rating of 3.4, it's a must-visit spot for your transportation needs. 
-To get there, use these GPS coordinates: 37.212943757221, 10.124218562888. For more details, call them at 54 907 229.</t>
+          <t>Taxi to MJ, MA, ZZ is a taxi station located in Bizerte (37.212943757221, 10.124218562888). It offers taxi services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -25927,8 +25787,7 @@
       </c>
       <c r="Y255" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable taxi station, check out Station louage Bizerte-Tunis located at 7V8P+3G4 Station louage Bizerte-Tunis, Zarzouna. 
-This top-rated destination with a rating of 5.0 is a must-visit spot for taxi transportation needs. For more details, visit their website at https://www.google.com/maps/place/Station+louage+Bizerte-Tunis/data=!4m7!3m6!1s0x12e31fcc9b1dd4e3:0xa6ca59be03bbe364!8m2!3d37.2651464!4d9.8863163!16s%2Fg%2F11kpznj1sk!19sChIJ49Qdm8wf4xIRZOO7A75ZyqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>The Station louage Bizerte-Tunis is a taxi station located at 37.2649615 latitude and 9.8849313 longitude in the city of Bizerte, Tunisia. This station is highly rated and has four reviews. Unfortunately, there is no description or additional information available about this station.</t>
         </is>
       </c>
     </row>
@@ -26031,7 +25890,7 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>If you're in bizerte and seeking a reliable public transport provider, Station Tarek Ibn Zied is a top-rated option. Located at 7V9F+J2G Station Tarek Ibn Zied, Rue Ler Jule 1956, this company is renowned for its bus and coach services. Rated 3.0, it's a must-visit for those who prefer traveling by public transport. For more information, visit their website at http://www.srtbizerte.com.tn/ or call them at 72 432 278.</t>
+          <t>Station Tarek Ibn Zied, located at coordinates (37.275992, 9.8701015) in Bizerte, Tunisia, is a bus station owned by Station Tarek Ibn Zied (proprietaire). It offers transportation services, with a rating of 3.0 based on 4 reviews. It is situated in the vicinity of Rue Ler Jule 1956, and its website is http://www.srtbizerte.com.tn/. Its main category is Societe de transport en bus et autocar, with services available by calling 72 432 278.</t>
         </is>
       </c>
     </row>
@@ -26126,7 +25985,8 @@
       </c>
       <c r="Y257" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for a reliable taxi stand, consider mHT@ Hflt on 7VG9+CWH mHT@ Hflt, Bizerte. This top-rated taxi stand is perfect for those seeking a convenient way to get around town. With a rating of 3.7, it's a must-visit for travelers and locals. Its GPS coordinates for your convenience are 37.2725849, 9.8719093.</t>
+          <t>**mHT@ Hflt: A Reputable Taxi Station in Bizerte**
+mHT@ Hflt is a reliable taxi station located in Bizerte, offering convenient transportation services for locals and tourists alike. Its strategic location at 7VG9+CWH mHT@ Hflt makes it easily accessible from various parts of the city. With a rating of 3.7, it ensures a comfortable and reliable ride to its customers.</t>
         </is>
       </c>
     </row>
@@ -26221,7 +26081,7 @@
       </c>
       <c r="Y258" t="inlineStr">
         <is>
-          <t>If you're in Bizerte and looking for a reliable public transportation service, consider checking out Station gare routiere jarzouna, located at Station gare routiere jarzouna, Gare routere de Bizerte, P8, Zarzouna, 7000. This bus and coach station is perfect for those needing to travel by road and offers a range of services to choose from. With a rating of 2.0, it's a noteworthy spot to consider. For more details, visit their website at http://www.stb.com.tn/.</t>
+          <t>Station gare routiere jarzouna: A bus and coach transport company located in Zarzouna, Tunisia. It offers bus services to various destinations and has a rating of 2.0. Its coordinates are (37.275992, 9.8701015).</t>
         </is>
       </c>
     </row>
@@ -26312,7 +26172,7 @@
       </c>
       <c r="Y259" t="inlineStr">
         <is>
-          <t>If you're in bizerte, Station SNTRI is a top-rated Service de transport destination located at 7V9C+V55 Station SNTRI. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2725849, 9.8719093.</t>
+          <t>Located in Bizerte, Tunisia at (37.2725849, 9.8719093), Station SNTRI is a transportation service. It has one review and a rating of 3.0. The website and other contact information are not available.</t>
         </is>
       </c>
     </row>
@@ -26403,7 +26263,7 @@
       </c>
       <c r="Y260" t="inlineStr">
         <is>
-          <t>If you're in bizerte and need a reliable school bus service, check out Station bus 2000 located at 7VM2+V45 Station bus 2000, Unnamed Road, Bizerte. With a top rating of 5.0, it's a must-visit spot for Service de bus scolaires lovers. For more details, visit their website at https://www.google.com/maps/place/Station+bus+2000/data=!4m7!3m6!1s0x12e31fc727ccb2d5:0xeaf615cce891b2be!8m2!3d37.2845833!4d9.8502537!16s%2Fg%2F11v0rd_fdf!19sChIJ1bLMJ8cf4xIRvrKR6MwV9uo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station bus 2000 is a school bus service located in Bizerte, Tunisia. It offers transportation services for students in the area. The company has a 5-star rating on Google and is located at coordinates (37.2725849, 9.8719093).</t>
         </is>
       </c>
     </row>
@@ -26498,7 +26358,7 @@
       </c>
       <c r="Y261" t="inlineStr">
         <is>
-          <t>If you're in bizerte and looking for something fun to do, check out Station Taxi Bhira located at 5 rue du theatre, Bizerte. This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.271150366925, 9.86821631891. For more details, visit their website at https://www.google.com/maps/place/Station+Taxi+Bhira/data=!4m7!3m6!1s0x12e31f692fd3f2c1:0x8c30d9175a250c8f!8m2!3d37.2717335!4d9.8681745!16s%2Fg%2F11v0nl0jsv!19sChIJwfLTL2kf4xIRjwwlWhfZMIw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Taxi Bhira, a taxi station situated at 5 rue du theatre in Bizerte, offers reliable transportation services to its customers. Located at coordinates (37.271150366925, 9.86821631891), the station is easily accessible for those seeking convenient transportation.</t>
         </is>
       </c>
     </row>
